--- a/tables/S7_SWIP-TMT_Complex_Results.xlsx
+++ b/tables/S7_SWIP-TMT_Complex_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t xml:space="preserve">Pathway</t>
   </si>
@@ -56,28 +56,31 @@
     <t xml:space="preserve">Padjust</t>
   </si>
   <si>
+    <t xml:space="preserve">Ribosome, cytoplasmic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutant-Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nop56p-associated pre-rRNA complex</t>
+  </si>
+  <si>
     <t xml:space="preserve">26S proteasome</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutant-Control</t>
-  </si>
-  <si>
     <t xml:space="preserve">20S proteasome</t>
   </si>
   <si>
-    <t xml:space="preserve">PA28gamma-20S proteasome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parvulin-associated pre-rRNP complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRBP containing complex (DICER, RPL7A, EIF6, MOV10 and subunits of the 60S ribosomal particle)</t>
+    <t xml:space="preserve">PA28-20S proteasome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCT complex (chaperonin containing TCP1 complex)</t>
   </si>
   <si>
     <t xml:space="preserve">CCT-Prefoldin complex</t>
   </si>
   <si>
-    <t xml:space="preserve">Spliceosome</t>
+    <t xml:space="preserve">CCT complex (chaperonin containing TCP1 complex), testis specific</t>
   </si>
   <si>
     <t xml:space="preserve">CCT-Prefoldin complex, testis specific</t>
@@ -86,48 +89,51 @@
     <t xml:space="preserve">BBS-chaperonin complex</t>
   </si>
   <si>
+    <t xml:space="preserve">40S ribosomal subunit, cytoplasmic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multisynthetase complex</t>
+  </si>
+  <si>
     <t xml:space="preserve">WASHC</t>
   </si>
   <si>
-    <t xml:space="preserve">Multisynthetase complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40S ribosomal subunit, cytoplasmic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA700 complex</t>
+    <t xml:space="preserve">Immunoproteasome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCT-Pdcl complex</t>
   </si>
   <si>
     <t xml:space="preserve">eIF3 complex (EIF3S6, EIF3S5, EIF3S4, EIF3S3, EIF3S6IP, EIF3S2, EIF3S9, EIF3S12,  EIF3S10, EIF3S8,  EIF3S1, EIF3S7, PCID1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Respiratory chain complex I, mitochondrial</t>
+    <t xml:space="preserve">Respiratory chain complex I (holoenzyme), mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory chain complex I (nuclear encoded subunits), mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI4K2A-WASH complex</t>
   </si>
   <si>
     <t xml:space="preserve">TNF-alpha/NF-kappa B signaling complex 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Respiratory chain complex I (nuclear encoded subunits), mitochondrial</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anaphase-promoting complex</t>
   </si>
   <si>
     <t xml:space="preserve">17S U2 snRNP</t>
   </si>
   <si>
+    <t xml:space="preserve">TNF-alpha/Nf-kappa B signaling complex (RPL6, RPL30, RPS13, CHUK, DDX3X, NFKB2, NFKBIB, REL, IKBKG, NFKB1, MAP3K8, RELB, GLG1, NFKBIA, RELA, TNIP2,  GTF2I)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Respiratory chain complex I (subcomplex I alpha), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">DNA-PK-Ku-eIF2-NF90-NF45 complex</t>
   </si>
   <si>
-    <t xml:space="preserve">CTLH complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elongator holo complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMPA receptor complex (anti-GluA1-a)</t>
   </si>
   <si>
@@ -143,205 +149,208 @@
     <t xml:space="preserve">AMPA receptor complex (anti-GluA2-b)</t>
   </si>
   <si>
-    <t xml:space="preserve">Respiratory chain complex I (lambda subunit) mitochondrial</t>
-  </si>
-  <si>
     <t xml:space="preserve">EIF3 complex (EIF3A, EIF3B, EIF3G, EIF3I, EIF3C)</t>
   </si>
   <si>
+    <t xml:space="preserve">EIF2B1-EIF2B2-EIF2B3-EIF2B4-EIF2B5 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory chain complex I (intermediate VII/650kD), mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18S U11/U12 snRNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Septin complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12S U11 snRNP</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSA complex</t>
   </si>
   <si>
-    <t xml:space="preserve">CSA-POLIIa complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDB2 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF2B1-EIF2B2-EIF2B3-EIF2B4-EIF2B5 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory chain complex I (intermediate VII/650kD), mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18S U11/U12 snRNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12S U11 snRNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory chain complex I (intermediate), mitochondrial</t>
-  </si>
-  <si>
     <t xml:space="preserve">20S methylosome and RG-containing Sm protein complex</t>
   </si>
   <si>
-    <t xml:space="preserve">SOG complex</t>
+    <t xml:space="preserve">Dynein complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR4-NOT-CNOT8-CNOT6L complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR4-NOT-CNOT7-CNOT6L complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3 complex (EIF3A, EIF3B, EIF3G, EIF3I, EIF3J)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3 core complex (EIF3A, EIF3B, EIF3G, EIF3I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI complex (Unconventional prefoldin RPB5 Interactor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF2B2-EIF2B3-EIF2B4-EIF2B5 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory chain complex I (incomplete intermediate), mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory chain complex I (beta subunit) mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory chain complex I (intermediate I/200kD and III/250kD), mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamma-tubulin complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory chain complex I (gamma subunit) mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succinate dehydrogenase complex II, mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2AX complex, isolated from cells without IR exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory chain complex I (intermediate V/380kD and VI/480kD), mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR4-NOT-CNOT8-CNOT6 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR4-NOT-CNOT7-CNOT6 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3 complex (EIF3B, EIF3G, EIF3I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caveolar macromolecular signaling complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytochrome c oxidase, mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATOR complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATOR2 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIB complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL-1 supercomplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-HDAC2 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arp2/3 protein complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIN85 complex (CIN85, CRK, BCAR1, CBL, PIK3R1, GRB2, SOS1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3b complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF3A/B-PAR-3-aPKC-PAR-6 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRD complex (Nucleosome remodeling and deacetylation complex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCOR1 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frataxin complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory chain complex I (early intermediate NDUFAF1 assembly), mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F0F1 ATP synthase, mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gata1-Fog1-MeCP1 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA decay complex (UPF1, UPF2, UPF3B, DCP2, XRN1, XRN2, EXOSC2, EXOSC4, EXOSC10, PARN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p54(nrb)-PSF-matrin3 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kif3-cadherin-catenin complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICOS complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EARP complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55S ribosome, mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGF2BP1 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAA1-GPI8-PIGT-PIG-PIGS complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA polymerase II holoenzyme complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mTORC2 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi2/NuRD complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARC complex (LCR-associated remodeling complex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS1L-PELP1-TEX10-WDR18-NOL9-SENP3  complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFIIH transcription factor complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP3 adaptor complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP3-BLOC1 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubiquilin-proteasome complex</t>
   </si>
   <si>
     <t xml:space="preserve">BBSome</t>
   </si>
   <si>
-    <t xml:space="preserve">EIF3 complex (EIF3A, EIF3B, EIF3G, EIF3I, EIF3J)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF3 core complex (EIF3A, EIF3B, EIF3G, EIF3I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URI complex (Unconventional prefoldin RPB5 Interactor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinesin II complex (Kif3a-Kif3b-Kifap3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF2B2-EIF2B3-EIF2B4-EIF2B5 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory chain complex I (intermediate I/200kD and III/250kD), mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gamma-tubulin complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Succinate dehydrogenase complex II, mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2AX complex, isolated from cells without IR exposure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory chain complex I (intermediate V/380kD and VI/480kD), mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcl-2-Beclin1-UVRAG-PI(3)KC3 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glur2-Glur4-Plp-Itgav complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF3 complex (EIF3B, EIF3G, EIF3I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory chain complex I (intermediate IV/310kD), mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP3 adaptor complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP3-BLOC1 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytochrome c oxidase, mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-HDAC2 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATOR complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATOR2 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arp2/3 protein complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNAS-L-GNB4-GNG12 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSm2-8 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNAS-L-GNB2-GNG12 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory chain complex I (subcomplex I beta), mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF3A/B-PAR-3-aPKC-PAR-6 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL-1 supercomplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABA-A receptor (GABRA1, GABRB2, GABRD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSm1-7 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p54(nrb)-PSF-matrin3 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kif3-cadherin-catenin complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EARP complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55S ribosome, mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADM1-DLG1-MPP3-PIK3R1 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABA-A receptor (GABRA1, GABRB2, GABRG2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGF2BP1 complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">anti-BHC110 complex</t>
   </si>
   <si>
-    <t xml:space="preserve">BHC complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRAF53-BRCA2 complex</t>
   </si>
   <si>
-    <t xml:space="preserve">CtBP complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">CtBP core complex</t>
   </si>
   <si>
-    <t xml:space="preserve">Respiratory chain complex I (intermediate II/230kD), mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA polymerase II holoenzyme complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class C Vps complex (hVPS11, hVPS18, hVPS16, rVPS33a )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARC complex (LCR-associated remodeling complex)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquilin-proteasome complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNARE complex (Stx4, Stx6, Stx7, Vamp3, Vamp7, Vamp8, Vti1b)</t>
-  </si>
-  <si>
     <t xml:space="preserve">GARP complex</t>
   </si>
   <si>
     <t xml:space="preserve">NCOR2 complex</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetrameric COG subcomplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCOR1 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTA1 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTA1-HDAC core complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hASC-1 complex</t>
+    <t xml:space="preserve">39S ribosomal subunit, mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7SK RNP complex</t>
   </si>
   <si>
     <t xml:space="preserve">Ecsit complex (ECSIT, MT-CO2, NDUFA1, MT-ND1, TRAF6, NDUFAF1)</t>
@@ -353,58 +362,49 @@
     <t xml:space="preserve">AP1 adaptor complex</t>
   </si>
   <si>
-    <t xml:space="preserve">AFF4 super elongation complex (SEC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUL4B-DDB1-WDR26 complex</t>
+    <t xml:space="preserve">Gamma-BAR-AP1 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDH4-HDAC2-MTA2-RBBP7-TWIST1 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDAC2-asscociated core complex</t>
   </si>
   <si>
     <t xml:space="preserve">5FMC (Friends of Methylated Chtop) complex</t>
   </si>
   <si>
-    <t xml:space="preserve">RNA polymerase II (RNAPII)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sororin-cohesin complex</t>
+    <t xml:space="preserve">Intraflagellar transport complex A</t>
   </si>
   <si>
     <t xml:space="preserve">RAVE</t>
   </si>
   <si>
-    <t xml:space="preserve">mRNA decay complex (UPF1, UPF2, UPF3B, DCP2, XRN1, XRN2, EXOSC2, EXOSC4, EXOSC10, PARN)</t>
+    <t xml:space="preserve">Calcineurin-FKBP12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">Ecsit complex (ECSIT, MT-CO2, GAPDH, TRAF6, NDUFAF1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Oligosaccharyltransferase complex (Stt3B variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLR2A-CCNT1-CDK9-NCL-LEM6-CPSF2 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquitin E3 ligase (CSN1, CSN8, HRT1, SKP1, SKP2, CUL1, CUL2, CUL3)</t>
+    <t xml:space="preserve">HCF-1 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinase maturation complex 1</t>
   </si>
   <si>
     <t xml:space="preserve">RNA polymerase II complex, chromatin structure modifying</t>
   </si>
   <si>
-    <t xml:space="preserve">Emerin complex 32</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRMS1-SIN3-HDAC complex</t>
   </si>
   <si>
     <t xml:space="preserve">ING2 complex</t>
   </si>
   <si>
-    <t xml:space="preserve">SIN3-ING1b complex I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIN3-ING1b complex II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEN complex</t>
+    <t xml:space="preserve">SAP complex (Sin3-associated protein complex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dlgap1-Dlg4-Begain complex</t>
   </si>
   <si>
     <t xml:space="preserve">CF IIAm complex (Cleavage factor IIAm complex)</t>
@@ -413,28 +413,34 @@
     <t xml:space="preserve">Integrator complex</t>
   </si>
   <si>
+    <t xml:space="preserve">Integrator-RNAPII complex</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ecsit complex (ECSIT, NDUFS3, NDUFAF1)</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAPP complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNAQ-GEFT-RHOA complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emerin complex 52</t>
+    <t xml:space="preserve">CLIC4 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HES1 promoter-Notch enhancer complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nNos-Capon-Syn1 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRD1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">GCN5-TRRAP histone acetyltransferase complex</t>
   </si>
   <si>
-    <t xml:space="preserve">7SK RNP complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-TEFb-7SKRNA-HEXIM1 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubulin polyglutamylase complex</t>
+    <t xml:space="preserve">WINAC complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyadenylation complex (CSTF1, CSTF2, CSTF3, SYMPK CPSF1, CPSF2, CPSF3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubiquitin E3 ligase (DDB1, DYRK2, EDD, VPRBP)</t>
   </si>
   <si>
     <t xml:space="preserve">HuR-Tia1-Tiar-Hrnpu complex</t>
@@ -443,25 +449,40 @@
     <t xml:space="preserve">Apoptosis- and splicing-associated protein complex (ASAP-L), SAP18, RNPS1, Acinus-L</t>
   </si>
   <si>
-    <t xml:space="preserve">HRD1 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HES1 promoter-Notch enhancer complex</t>
+    <t xml:space="preserve">PYR complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLE1 corepressor complex (MASH1 promoter-corepressor complex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drosha complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ER)-localized multiprotein complex, Ig heavy chains associated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2X7 receptor signalling complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory chain complex I (incomplete intermediate ND1, ND2, ND3, CIA30 assembly), mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-Src immune complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORC complex</t>
   </si>
   <si>
     <t xml:space="preserve">TBCD-ARL2-tubulin(beta)-TBCE complex</t>
   </si>
   <si>
-    <t xml:space="preserve">CLIC4 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediator complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORC complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinase maturation complex 1</t>
+    <t xml:space="preserve">COG complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9S-cytosolic aryl hydrocarbon (Ah) receptor non-ligand activated complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intraflagellar transport complex B</t>
   </si>
   <si>
     <t xml:space="preserve">28S ribosomal subunit, mitochondrial</t>
@@ -470,7 +491,10 @@
     <t xml:space="preserve">Ncam-Fgfr4 signaling complex</t>
   </si>
   <si>
-    <t xml:space="preserve">53BP1-containing complex</t>
+    <t xml:space="preserve">DLG4-DLGAP1-SHANK2 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSS1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">BRG1-SIN3A complex</t>
@@ -482,40 +506,43 @@
     <t xml:space="preserve">Toposome</t>
   </si>
   <si>
-    <t xml:space="preserve">Rap1 complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">DLG4-DLGAP1-SHANK3 complex</t>
   </si>
   <si>
+    <t xml:space="preserve">Beta-catenin-Cadherin-LAR complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGA5-ITGB1-ADAM15 complex</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cleavage stimulation factor</t>
   </si>
   <si>
-    <t xml:space="preserve">(ER)-localized multiprotein complex, Ig heavy chains associated</t>
-  </si>
-  <si>
     <t xml:space="preserve">v-ATPase-Ragulator-AXIN/LKB1-AMPK complex</t>
   </si>
   <si>
-    <t xml:space="preserve">RNA pol II containing coactivator complex Tat-SF</t>
+    <t xml:space="preserve">SNARE complex (Snap25, Syt1, Unc13b, Vamp2, Stx1b2, Stx1a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacuolar ATPase</t>
   </si>
   <si>
     <t xml:space="preserve">Succinyl-CoA synthetase, ADP-forming</t>
   </si>
   <si>
-    <t xml:space="preserve">P2X7 receptor signalling complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNARE complex (Stx4, Snap25, Vamp2, Syt1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9orf72-SMCR8-WDR41 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vacuolar ATPase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNARE complex (Stx5, Gosr1, Bet1, Gef2)</t>
+    <t xml:space="preserve">Ragulator-AXIN/LKB1-AMPK complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNARE complex (STX1a, STX1b, SNAP25, RAB3a, SYT1, VAMP2, CPLX2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNARE complex (STX1A, STX1B, SNAP25, RAB3A, SYT1, VAMP2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNARE complex (Bet1, Gosr1, Gosr2, Scfd1, Stx5, Sec22b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear pore complex</t>
   </si>
   <si>
     <t xml:space="preserve">BRM-SIN3A complex</t>
@@ -524,94 +551,55 @@
     <t xml:space="preserve">BRM-SIN3A-HDAC complex</t>
   </si>
   <si>
-    <t xml:space="preserve">SWELL1-containing complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polycystin-1 multiprotein complex (ACTN1, CDH1, SRC, JUP, VCL, CTNNB1, PXN, BCAR1, PKD1, PTK2, TLN1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">KAT2A-Oxoglutarate dehydrogenase complex</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha-GDI-Hsp90 chaperone complex, ATP dependent</t>
   </si>
   <si>
-    <t xml:space="preserve">DCS complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquitin E3 ligase (Asb2, Tceb1, Tceb2, Cul5, Rbx1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquitin E3 ligase (Neurl2, Tceb1, Tceb2, Cul5, Rbx1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquitin E3 ligase (Tceb1, Tceb2, Tceb3, Cul5, Rbx1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquitin E3 ligase (Vhl, Tceb1, Tceb2, Cul5, Rbx1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquitin E3 ligase (Wsb1, Tceb1, Tceb2, Cul5, Rbx1)</t>
+    <t xml:space="preserve">VCP-VIMP-DERL1-DERL2-HRD1-SEL1L complex</t>
   </si>
   <si>
     <t xml:space="preserve">Decapping complex</t>
   </si>
   <si>
-    <t xml:space="preserve">Endocytic coat complex (11 subunits)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLE1 corepressor complex (MASH1 promoter-corepressor complex)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRM1-RAN-PHAX-CBC complex (cap binding complex)</t>
-  </si>
-  <si>
     <t xml:space="preserve">WDR41-(C9orf72-SMCR8)-(FIP200-ULK1-ATG13-ATG101) complex</t>
   </si>
   <si>
-    <t xml:space="preserve">Amfr-Vcp-Ubxn1-Ngly1-Rad23b complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDC22-CCDC93-C16orf62 complex</t>
+    <t xml:space="preserve">CCC complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCC-Wash (WASH1, FAM21C) complex</t>
   </si>
   <si>
     <t xml:space="preserve">CCDC22-CCDC93-C16orf62-FAM21-WASH1 complex</t>
   </si>
   <si>
-    <t xml:space="preserve">CCC-Wash (WASH1, FAM21C) complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c-Src immune complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">hTREX84 complex</t>
   </si>
   <si>
-    <t xml:space="preserve">HCF-1 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emerin complex 25</t>
+    <t xml:space="preserve">TNF-alpha/NF-kappa B signaling complex 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNF-R1-associated signaling complex</t>
   </si>
   <si>
     <t xml:space="preserve">TNF-alpha/NF-kappa B signaling complex 5</t>
   </si>
   <si>
-    <t xml:space="preserve">COMMD1-CCDC93-C16orf62 complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAF-MAP2K1-MAP2K2-YWHAE complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exon junction complex (EIF4A3, MLN51, MAGOH, Y14)</t>
+    <t xml:space="preserve">RICH1/AMOT polarity complex, Flag-Rich1 precipitated</t>
   </si>
   <si>
     <t xml:space="preserve">Dystrobrevin-syntrophin complex, brain-derived</t>
   </si>
   <si>
-    <t xml:space="preserve">RICH1/AMOT polarity complex, Flag-Rich1 precipitated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP2A-NR3A complex</t>
+    <t xml:space="preserve">Akt-Arrb2-Ppp2ca-Ppp2r2a complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMM8A-TIMM13-TIMM23 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ksr1-CK2-MEK-14-3-3 complex, PDGF treated</t>
   </si>
 </sst>
 </file>
@@ -995,40 +983,40 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320032283028709</v>
+        <v>0.300704091609149</v>
       </c>
       <c r="D2" t="n">
-        <v>1.24835848296994</v>
+        <v>1.23174540661547</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00786849638480343</v>
+        <v>0.00725097726345128</v>
       </c>
       <c r="F2" t="n">
-        <v>40.6726097818121</v>
+        <v>41.4708363691685</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000408364950520859</v>
+        <v>3.1211318931882e-255</v>
       </c>
       <c r="H2" t="n">
-        <v>889.000000012076</v>
+        <v>1585.99999995602</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0132018068008805</v>
+        <v>0.0198739817419831</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.97985067842635</v>
+        <v>0.976551478266889</v>
       </c>
       <c r="L2" t="n">
-        <v>0.983076248818755</v>
+        <v>0.980287964823645</v>
       </c>
       <c r="M2" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000075547515846359</v>
+        <v>5.64924872667067e-253</v>
       </c>
     </row>
     <row r="3">
@@ -1039,40 +1027,40 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.321754573090385</v>
+        <v>0.283868890144647</v>
       </c>
       <c r="D3" t="n">
-        <v>1.24984966386068</v>
+        <v>1.21745537320667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00972834292253317</v>
+        <v>0.00750871089732122</v>
       </c>
       <c r="F3" t="n">
-        <v>33.0739341378607</v>
+        <v>37.8052763019441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000686228690170863</v>
+        <v>1.9263230901213e-230</v>
       </c>
       <c r="H3" t="n">
-        <v>561.000000017394</v>
+        <v>1791.0000001197</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0128420090166507</v>
+        <v>0.0240442168383437</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.978993776167355</v>
+        <v>0.971065092277111</v>
       </c>
       <c r="L3" t="n">
-        <v>0.982503409072392</v>
+        <v>0.974924933413421</v>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N3" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012695230768161</v>
+        <v>3.48664479311956e-228</v>
       </c>
     </row>
     <row r="4">
@@ -1083,40 +1071,40 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.321754573090385</v>
+        <v>0.320032283028709</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24984966386068</v>
+        <v>1.24835848296994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00972834292253317</v>
+        <v>0.00786849638480343</v>
       </c>
       <c r="F4" t="n">
-        <v>33.0739341378607</v>
+        <v>40.6726097818121</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000686228690170863</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000408364950520859</v>
       </c>
       <c r="H4" t="n">
-        <v>561.000000017394</v>
+        <v>889.000000012076</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0128420090166507</v>
+        <v>0.0132018068008805</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.978993776167355</v>
+        <v>0.97985067842635</v>
       </c>
       <c r="L4" t="n">
-        <v>0.982503409072392</v>
+        <v>0.983076248818755</v>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012695230768161</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000739140560442756</v>
       </c>
     </row>
     <row r="5">
@@ -1127,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.280549616630043</v>
+        <v>0.321754573090385</v>
       </c>
       <c r="D5" t="n">
-        <v>1.21465753853524</v>
+        <v>1.24984966386068</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00993225629907295</v>
+        <v>0.00972834292253317</v>
       </c>
       <c r="F5" t="n">
-        <v>28.2463126385723</v>
+        <v>33.0739341378607</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000030804033522547</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000686228690170863</v>
       </c>
       <c r="H5" t="n">
-        <v>930.000000039961</v>
+        <v>561.000000017394</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0219912980478457</v>
+        <v>0.0128420090166507</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9739857274048</v>
+        <v>0.978993776167355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.978108792384241</v>
+        <v>0.982503409072392</v>
       </c>
       <c r="M5" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000056987462016712</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000124207392920926</v>
       </c>
     </row>
     <row r="6">
@@ -1171,40 +1159,40 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.292273456869999</v>
+        <v>0.318962982142741</v>
       </c>
       <c r="D6" t="n">
-        <v>1.22456848228787</v>
+        <v>1.2474335638259</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00973416084643919</v>
+        <v>0.0106963054072837</v>
       </c>
       <c r="F6" t="n">
-        <v>30.0255421582554</v>
+        <v>29.819920991181</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000543992838623055</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111059015744922</v>
       </c>
       <c r="H6" t="n">
-        <v>684.000000006724</v>
+        <v>601.999999999344</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0156125251367136</v>
+        <v>0.016633591869348</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.982329973314346</v>
+        <v>0.973207037393388</v>
       </c>
       <c r="L6" t="n">
-        <v>0.984380411402547</v>
+        <v>0.976951472713938</v>
       </c>
       <c r="M6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100638675145265</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000201016818498309</v>
       </c>
     </row>
     <row r="7">
@@ -1248,7 +1236,7 @@
         <v>8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107375056225286</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000105053433387983</v>
       </c>
     </row>
     <row r="8">
@@ -1259,40 +1247,40 @@
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>0.261424220815303</v>
+        <v>0.208123400099483</v>
       </c>
       <c r="D8" t="n">
-        <v>1.19866143287623</v>
+        <v>1.15518458838447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0113596677775644</v>
+        <v>0.00593614049687516</v>
       </c>
       <c r="F8" t="n">
-        <v>23.0133685187187</v>
+        <v>35.0603898625784</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000018143406547138</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000580405709325872</v>
       </c>
       <c r="H8" t="n">
-        <v>1881.91035133979</v>
+        <v>321.999999990545</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0579498076671622</v>
+        <v>0.00273228200851003</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.889222574966512</v>
+        <v>0.987813682697322</v>
       </c>
       <c r="L8" t="n">
-        <v>0.938524140643231</v>
+        <v>0.987813682697322</v>
       </c>
       <c r="M8" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000335653021122053</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000105053433387983</v>
       </c>
     </row>
     <row r="9">
@@ -1336,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000130290932112131</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127473830877275</v>
       </c>
     </row>
     <row r="10">
@@ -1347,40 +1335,40 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.208763424291356</v>
+        <v>0.209901647675008</v>
       </c>
       <c r="D10" t="n">
-        <v>1.15569717772896</v>
+        <v>1.15660933210967</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00679391760623158</v>
+        <v>0.00633542272958154</v>
       </c>
       <c r="F10" t="n">
-        <v>30.7279888263397</v>
+        <v>33.1314352071456</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000838651065006739</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000704275308714224</v>
       </c>
       <c r="H10" t="n">
-        <v>237.99999999648</v>
+        <v>279.999999999868</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00268422547914148</v>
+        <v>0.00272318050656336</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.988048547877316</v>
+        <v>0.987944816449536</v>
       </c>
       <c r="L10" t="n">
-        <v>0.988048547877316</v>
+        <v>0.987944816449536</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000155150447026247</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127473830877275</v>
       </c>
     </row>
     <row r="11">
@@ -1391,40 +1379,40 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.29356389798533</v>
+        <v>0.208763424291356</v>
       </c>
       <c r="D11" t="n">
-        <v>0.407942041929627</v>
+        <v>1.15569717772896</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0391518734462617</v>
+        <v>0.00679391760623158</v>
       </c>
       <c r="F11" t="n">
-        <v>-33.0396424007864</v>
+        <v>30.7279888263397</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000381588713622774</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000838651065006739</v>
       </c>
       <c r="H11" t="n">
-        <v>192.000001768245</v>
+        <v>237.99999999648</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0742851994186015</v>
+        <v>0.00268422547914148</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.86621705512421</v>
+        <v>0.988048547877316</v>
       </c>
       <c r="L11" t="n">
-        <v>0.873961502810778</v>
+        <v>0.988048547877316</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000705939120202133</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000015179584276622</v>
       </c>
     </row>
     <row r="12">
@@ -1435,40 +1423,40 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>0.285740908628559</v>
+        <v>0.355212083048158</v>
       </c>
       <c r="D12" t="n">
-        <v>1.21903614959993</v>
+        <v>1.27917361207501</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0117540243259844</v>
+        <v>0.0165058184909637</v>
       </c>
       <c r="F12" t="n">
-        <v>24.3100491120201</v>
+        <v>21.5204161637076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000130517943002091</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000005110554250448</v>
       </c>
       <c r="H12" t="n">
-        <v>397.000000017002</v>
+        <v>889.000000066031</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0133906100537191</v>
+        <v>0.0580930266250001</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.97250884166473</v>
+        <v>0.932136794766471</v>
       </c>
       <c r="L12" t="n">
-        <v>0.976888648058755</v>
+        <v>0.949229309404276</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000241458194553869</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000925010319331089</v>
       </c>
     </row>
     <row r="13">
@@ -1479,40 +1467,40 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>0.355769524624398</v>
+        <v>0.306109095750284</v>
       </c>
       <c r="D13" t="n">
-        <v>1.27966796626097</v>
+        <v>1.23636875086369</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0178182149632402</v>
+        <v>0.0110117330164749</v>
       </c>
       <c r="F13" t="n">
-        <v>19.9666198526826</v>
+        <v>27.7984487357539</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000216761520082589</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000010026307868293</v>
       </c>
       <c r="H13" t="n">
-        <v>807.000000010414</v>
+        <v>274.000000186893</v>
       </c>
       <c r="I13" t="n">
-        <v>0.061543979760009</v>
+        <v>0.00822690683623384</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.927564033765031</v>
+        <v>0.985554921337627</v>
       </c>
       <c r="L13" t="n">
-        <v>0.946392886378988</v>
+        <v>0.98727680533694</v>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000040100881215279</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000181476172416103</v>
       </c>
     </row>
     <row r="14">
@@ -1523,40 +1511,40 @@
         <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>0.314828921214506</v>
+        <v>-1.29356389798533</v>
       </c>
       <c r="D14" t="n">
-        <v>1.2438641436872</v>
+        <v>0.407942041929627</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0163801110423015</v>
+        <v>0.0391518734462617</v>
       </c>
       <c r="F14" t="n">
-        <v>19.2201945640944</v>
+        <v>-33.0396424007864</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000750244257661549</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000381588713622774</v>
       </c>
       <c r="H14" t="n">
-        <v>725.000000037362</v>
+        <v>192.000001768245</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0468094330488797</v>
+        <v>0.0742851994186015</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.936527481059381</v>
+        <v>0.86621705512421</v>
       </c>
       <c r="L14" t="n">
-        <v>0.944278413234434</v>
+        <v>0.873961502810778</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000138795187667387</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000069067557165722</v>
       </c>
     </row>
     <row r="15">
@@ -1567,40 +1555,40 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210193698018093</v>
+        <v>0.312292255243054</v>
       </c>
       <c r="D15" t="n">
-        <v>1.15684349271525</v>
+        <v>1.24167900028862</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0121571034502232</v>
+        <v>0.015328557561064</v>
       </c>
       <c r="F15" t="n">
-        <v>17.2897844358012</v>
+        <v>20.3732317277072</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000212327173768176</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000028881847847032</v>
       </c>
       <c r="H15" t="n">
-        <v>479.000000163312</v>
+        <v>520.000000409319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0171897144939027</v>
+        <v>0.0296055492897593</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.96382826428166</v>
+        <v>0.946914544951757</v>
       </c>
       <c r="L15" t="n">
-        <v>0.965124190449762</v>
+        <v>0.954884741122249</v>
       </c>
       <c r="M15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000392805271471126</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000052276144603128</v>
       </c>
     </row>
     <row r="16">
@@ -1611,40 +1599,40 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.250239885519255</v>
+        <v>0.198571786225469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.840756606009262</v>
+        <v>1.14756174956399</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0158106147747664</v>
+        <v>0.00970483897712591</v>
       </c>
       <c r="F16" t="n">
-        <v>-15.8273342993997</v>
+        <v>20.4611108637143</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000267296649867858</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000451982801164581</v>
       </c>
       <c r="H16" t="n">
-        <v>1501.33326919509</v>
+        <v>356.000000057937</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0896450742623349</v>
+        <v>0.00821573400881405</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.888656248760588</v>
+        <v>0.959359866688198</v>
       </c>
       <c r="L16" t="n">
-        <v>0.947203124621649</v>
+        <v>0.960671224489077</v>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000494498802255537</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000818088870107892</v>
       </c>
     </row>
     <row r="17">
@@ -1655,40 +1643,40 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0.279901388823121</v>
+        <v>0.210193698018093</v>
       </c>
       <c r="D17" t="n">
-        <v>1.21411189451069</v>
+        <v>1.15684349271525</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0130669496684665</v>
+        <v>0.0121571034502232</v>
       </c>
       <c r="F17" t="n">
-        <v>21.4205607218787</v>
+        <v>17.2897844358012</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000000000000000000000000000000000000000000000126332886691699</v>
+        <v>0.000000000000000000000000000000000000000000000000000212327173768176</v>
       </c>
       <c r="H17" t="n">
-        <v>151.000000455824</v>
+        <v>479.000000163312</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00661965903951323</v>
+        <v>0.0171897144939027</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.992549339743585</v>
+        <v>0.96382826428166</v>
       </c>
       <c r="L17" t="n">
-        <v>0.993033984898835</v>
+        <v>0.965124190449762</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00000000000000000000000000000000000000000000233715840379642</v>
+        <v>0.0000000000000000000000000000000000000000000000000384312184520399</v>
       </c>
     </row>
     <row r="18">
@@ -1699,40 +1687,40 @@
         <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.252484312618982</v>
+        <v>-0.249777751908822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.83944964245504</v>
+        <v>0.841025965861216</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0172338919441759</v>
+        <v>0.0164658918092731</v>
       </c>
       <c r="F18" t="n">
-        <v>-14.6504523433726</v>
+        <v>-15.1694032003876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0000000000000000000000000000000000000000000111928499141719</v>
+        <v>0.00000000000000000000000000000000000000000000000277554027371919</v>
       </c>
       <c r="H18" t="n">
-        <v>1146.33555731129</v>
+        <v>1419.4539540897</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0815627002008006</v>
+        <v>0.0919741434968744</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.897484522402613</v>
+        <v>0.885153797186717</v>
       </c>
       <c r="L18" t="n">
-        <v>0.951435591888583</v>
+        <v>0.946234366726302</v>
       </c>
       <c r="M18" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0000000000000000000000000000000000000000020706772341218</v>
+        <v>0.000000000000000000000000000000000000000000000502372789543174</v>
       </c>
     </row>
     <row r="19">
@@ -1743,40 +1731,40 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240013189335831</v>
+        <v>-0.252484312618982</v>
       </c>
       <c r="D19" t="n">
-        <v>1.18100345829206</v>
+        <v>0.83944964245504</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0159797891236427</v>
+        <v>0.0172338919441759</v>
       </c>
       <c r="F19" t="n">
-        <v>15.0197970372915</v>
+        <v>-14.6504523433726</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000000000000000000000000000000000313351532099025</v>
+        <v>0.0000000000000000000000000000000000000000000111928499141719</v>
       </c>
       <c r="H19" t="n">
-        <v>192.00000000111</v>
+        <v>1146.33555731129</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0123748312365182</v>
+        <v>0.0815627002008006</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.957123379259766</v>
+        <v>0.897484522402613</v>
       </c>
       <c r="L19" t="n">
-        <v>0.958775274532672</v>
+        <v>0.951435591888583</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0000000000000000000000000000000579700334383197</v>
+        <v>0.00000000000000000000000000000000000000000202590583446512</v>
       </c>
     </row>
     <row r="20">
@@ -1787,40 +1775,40 @@
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251643686351995</v>
+        <v>-0.989426278268034</v>
       </c>
       <c r="D20" t="n">
-        <v>1.19056277047656</v>
+        <v>0.503678034664493</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0192057717765402</v>
+        <v>0.0526180281939583</v>
       </c>
       <c r="F20" t="n">
-        <v>13.1025032099661</v>
+        <v>-18.8039406307825</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000000000000000000000000000000000426652587489743</v>
+        <v>0.0000000000000000000000000000000000000000213185939036469</v>
       </c>
       <c r="H20" t="n">
-        <v>520.000000020474</v>
+        <v>150.999999998483</v>
       </c>
       <c r="I20" t="n">
-        <v>0.046476570361101</v>
+        <v>0.107338697928783</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.934407410120738</v>
+        <v>0.729976076739831</v>
       </c>
       <c r="L20" t="n">
-        <v>0.943981606904408</v>
+        <v>0.737823246365985</v>
       </c>
       <c r="M20" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0000000000000000000000000000000789307286856025</v>
+        <v>0.00000000000000000000000000000000000000385866549656009</v>
       </c>
     </row>
     <row r="21">
@@ -1831,40 +1819,40 @@
         <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.26711085994862</v>
+        <v>0.274403804446441</v>
       </c>
       <c r="D21" t="n">
-        <v>0.830982004604285</v>
+        <v>1.20949416093396</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02125384250906</v>
+        <v>0.0160892719586299</v>
       </c>
       <c r="F21" t="n">
-        <v>-12.5676502888716</v>
+        <v>17.0550790086718</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00000000000000000000000000000000970394213187314</v>
+        <v>0.000000000000000000000000000000000000000261243215556302</v>
       </c>
       <c r="H21" t="n">
-        <v>684.00000003976</v>
+        <v>191.999999995032</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0744305161106647</v>
+        <v>0.012544980266155</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.943177040400564</v>
+        <v>0.986572698829548</v>
       </c>
       <c r="L21" t="n">
-        <v>0.956615566717422</v>
+        <v>0.986774010754772</v>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.00000000000000000000000000000179522929439653</v>
+        <v>0.0000000000000000000000000000000000000472850220156907</v>
       </c>
     </row>
     <row r="22">
@@ -1875,40 +1863,40 @@
         <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>0.292638245363253</v>
+        <v>0.240013189335831</v>
       </c>
       <c r="D22" t="n">
-        <v>1.22487815616851</v>
+        <v>1.18100345829206</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0173498990175504</v>
+        <v>0.0159797891236427</v>
       </c>
       <c r="F22" t="n">
-        <v>16.8668558282231</v>
+        <v>15.0197970372915</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0000000000000000000000000000000278177467913435</v>
+        <v>0.000000000000000000000000000000000313351532099025</v>
       </c>
       <c r="H22" t="n">
-        <v>109.999999995632</v>
+        <v>192.00000000111</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00875270618903514</v>
+        <v>0.0123748312365182</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.986382055546651</v>
+        <v>0.957123379259766</v>
       </c>
       <c r="L22" t="n">
-        <v>0.988096996218388</v>
+        <v>0.958775274532672</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.00000000000000000000000000000514628315639855</v>
+        <v>0.0000000000000000000000000000000567166273099236</v>
       </c>
     </row>
     <row r="23">
@@ -1919,40 +1907,40 @@
         <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>0.217898184248449</v>
+        <v>0.251643686351995</v>
       </c>
       <c r="D23" t="n">
-        <v>1.16303795922336</v>
+        <v>1.19056277047656</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0156701749951438</v>
+        <v>0.0192057717765402</v>
       </c>
       <c r="F23" t="n">
-        <v>13.905280848234</v>
+        <v>13.1025032099661</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000000000000000000000000000000726680935401173</v>
+        <v>0.000000000000000000000000000000000426652587489743</v>
       </c>
       <c r="H23" t="n">
-        <v>191.999999999065</v>
+        <v>520.000000020474</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0118999432429546</v>
+        <v>0.046476570361101</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.969344499982958</v>
+        <v>0.934407410120738</v>
       </c>
       <c r="L23" t="n">
-        <v>0.971150787491931</v>
+        <v>0.943981606904408</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N23" t="n">
-        <v>0.000000000000000000000000000134435973049217</v>
+        <v>0.0000000000000000000000000000000772241183356435</v>
       </c>
     </row>
     <row r="24">
@@ -1963,40 +1951,40 @@
         <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>0.220327747481095</v>
+        <v>0.266253879533597</v>
       </c>
       <c r="D24" t="n">
-        <v>1.16499821749076</v>
+        <v>1.20268087310576</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0167124137405643</v>
+        <v>0.0151695137071757</v>
       </c>
       <c r="F24" t="n">
-        <v>13.1834785149147</v>
+        <v>17.5519060579806</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00000000000000000000000000676731286709452</v>
+        <v>0.00000000000000000000000000000000062023155479205</v>
       </c>
       <c r="H24" t="n">
-        <v>151.000000014199</v>
+        <v>111.99999999742</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0108284312007726</v>
+        <v>0.00669101132541605</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.972947026050679</v>
+        <v>0.9923878672846</v>
       </c>
       <c r="L24" t="n">
-        <v>0.975917850645251</v>
+        <v>0.9923878672846</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00000000000000000000000125195288041249</v>
+        <v>0.000000000000000000000000000000112261911417361</v>
       </c>
     </row>
     <row r="25">
@@ -2007,40 +1995,40 @@
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.256188511406227</v>
+        <v>-0.26711085994862</v>
       </c>
       <c r="D25" t="n">
-        <v>0.837297073975424</v>
+        <v>0.830982004604285</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0227922245385937</v>
+        <v>0.02125384250906</v>
       </c>
       <c r="F25" t="n">
-        <v>-11.2401714441005</v>
+        <v>-12.5676502888716</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00000000000000000000000856974249629536</v>
+        <v>0.00000000000000000000000000000000970394213187314</v>
       </c>
       <c r="H25" t="n">
-        <v>237.999999994936</v>
+        <v>684.00000003976</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0302100798122893</v>
+        <v>0.0744305161106647</v>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.892531326858967</v>
+        <v>0.943177040400564</v>
       </c>
       <c r="L25" t="n">
-        <v>0.892531326858967</v>
+        <v>0.956615566717422</v>
       </c>
       <c r="M25" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00000000000000000000158540236181464</v>
+        <v>0.00000000000000000000000000000175641352586904</v>
       </c>
     </row>
     <row r="26">
@@ -2051,40 +2039,40 @@
         <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.256188511406227</v>
+        <v>0.292638245363253</v>
       </c>
       <c r="D26" t="n">
-        <v>0.837297073975424</v>
+        <v>1.22487815616851</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0227922245385937</v>
+        <v>0.0173498990175504</v>
       </c>
       <c r="F26" t="n">
-        <v>-11.2401714441005</v>
+        <v>16.8668558282231</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00000000000000000000000856974249629536</v>
+        <v>0.0000000000000000000000000000000278177467913435</v>
       </c>
       <c r="H26" t="n">
-        <v>237.999999994936</v>
+        <v>109.999999995632</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0302100798122893</v>
+        <v>0.00875270618903514</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.892531326858967</v>
+        <v>0.986382055546651</v>
       </c>
       <c r="L26" t="n">
-        <v>0.892531326858967</v>
+        <v>0.988096996218388</v>
       </c>
       <c r="M26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.00000000000000000000158540236181464</v>
+        <v>0.00000000000000000000000000000503501216923318</v>
       </c>
     </row>
     <row r="27">
@@ -2095,40 +2083,40 @@
         <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.256188511406227</v>
+        <v>-0.29368930009476</v>
       </c>
       <c r="D27" t="n">
-        <v>0.837297073975424</v>
+        <v>0.815813168568262</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0227922245385937</v>
+        <v>0.0250632489567201</v>
       </c>
       <c r="F27" t="n">
-        <v>-11.2401714441005</v>
+        <v>-11.7179261396602</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00000000000000000000000856974249629536</v>
+        <v>0.00000000000000000000000222196944903371</v>
       </c>
       <c r="H27" t="n">
-        <v>237.999999994936</v>
+        <v>196.000000000178</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0302100798122893</v>
+        <v>0.0304419124929165</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0.892531326858967</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="L27" t="n">
-        <v>0.892531326858967</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="M27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.00000000000000000000158540236181464</v>
+        <v>0.000000000000000000000402176470275102</v>
       </c>
     </row>
     <row r="28">
@@ -2139,40 +2127,40 @@
         <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.256188511406227</v>
+        <v>-0.29368930009476</v>
       </c>
       <c r="D28" t="n">
-        <v>0.837297073975424</v>
+        <v>0.815813168568262</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0227922245385937</v>
+        <v>0.0250632489567201</v>
       </c>
       <c r="F28" t="n">
-        <v>-11.2401714441005</v>
+        <v>-11.7179261396602</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00000000000000000000000856974249629536</v>
+        <v>0.00000000000000000000000222196944903371</v>
       </c>
       <c r="H28" t="n">
-        <v>237.999999994936</v>
+        <v>196.000000000178</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0302100798122893</v>
+        <v>0.0304419124929165</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.892531326858967</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="L28" t="n">
-        <v>0.892531326858967</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00000000000000000000158540236181464</v>
+        <v>0.000000000000000000000402176470275102</v>
       </c>
     </row>
     <row r="29">
@@ -2183,40 +2171,40 @@
         <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.256188511406227</v>
+        <v>-0.29368930009476</v>
       </c>
       <c r="D29" t="n">
-        <v>0.837297073975424</v>
+        <v>0.815813168568262</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0227922245385937</v>
+        <v>0.0250632489567201</v>
       </c>
       <c r="F29" t="n">
-        <v>-11.2401714441005</v>
+        <v>-11.7179261396602</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00000000000000000000000856974249629536</v>
+        <v>0.00000000000000000000000222196944903371</v>
       </c>
       <c r="H29" t="n">
-        <v>237.999999994936</v>
+        <v>196.000000000178</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0302100798122893</v>
+        <v>0.0304419124929165</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.892531326858967</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="L29" t="n">
-        <v>0.892531326858967</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.00000000000000000000158540236181464</v>
+        <v>0.000000000000000000000402176470275102</v>
       </c>
     </row>
     <row r="30">
@@ -2227,40 +2215,40 @@
         <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.262021026143106</v>
+        <v>-0.29368930009476</v>
       </c>
       <c r="D30" t="n">
-        <v>0.833918890025861</v>
+        <v>0.815813168568262</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0251413161001939</v>
+        <v>0.0250632489567201</v>
       </c>
       <c r="F30" t="n">
-        <v>-10.42192958789</v>
+        <v>-11.7179261396602</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0000000000000000000000187991749686613</v>
+        <v>0.00000000000000000000000222196944903371</v>
       </c>
       <c r="H30" t="n">
-        <v>587.776358878662</v>
+        <v>196.000000000178</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0898534240509048</v>
+        <v>0.0304419124929165</v>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0.894124806767924</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="L30" t="n">
-        <v>0.947154920313058</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.00000000000000000000347784736920235</v>
+        <v>0.000000000000000000000402176470275102</v>
       </c>
     </row>
     <row r="31">
@@ -2271,40 +2259,40 @@
         <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>0.215335190527903</v>
+        <v>-0.29368930009476</v>
       </c>
       <c r="D31" t="n">
-        <v>1.16097361944703</v>
+        <v>0.815813168568262</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0188408998693773</v>
+        <v>0.0250632489567201</v>
       </c>
       <c r="F31" t="n">
-        <v>11.4291351273457</v>
+        <v>-11.7179261396602</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0000000000000000000000206404971443366</v>
+        <v>0.00000000000000000000000222196944903371</v>
       </c>
       <c r="H31" t="n">
-        <v>191.999999988166</v>
+        <v>196.000000000178</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0172028530745675</v>
+        <v>0.0304419124929165</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0.96825325844797</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="L31" t="n">
-        <v>0.968731773387679</v>
+        <v>0.895936376016256</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.00000000000000000000381849197170227</v>
+        <v>0.000000000000000000000402176470275102</v>
       </c>
     </row>
     <row r="32">
@@ -2315,40 +2303,40 @@
         <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112521261870257</v>
+        <v>0.215335190527903</v>
       </c>
       <c r="D32" t="n">
-        <v>1.08111595077716</v>
+        <v>1.16097361944703</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0105194705303078</v>
+        <v>0.0188408998693773</v>
       </c>
       <c r="F32" t="n">
-        <v>10.6964757918253</v>
+        <v>11.4291351273457</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0000000000000000000000210912941201899</v>
+        <v>0.0000000000000000000000206404971443366</v>
       </c>
       <c r="H32" t="n">
-        <v>364.000000000546</v>
+        <v>191.999999988166</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00965289239306992</v>
+        <v>0.0172028530745675</v>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.908179966523871</v>
+        <v>0.96825325844797</v>
       </c>
       <c r="L32" t="n">
-        <v>0.908179966523871</v>
+        <v>0.968731773387679</v>
       </c>
       <c r="M32" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
-        <v>0.00000000000000000000390188941223514</v>
+        <v>0.00000000000000000000373592998312492</v>
       </c>
     </row>
     <row r="33">
@@ -2359,40 +2347,40 @@
         <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112521261870257</v>
+        <v>0.203441822339526</v>
       </c>
       <c r="D33" t="n">
-        <v>1.08111595077716</v>
+        <v>1.15144206406207</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0105194705303078</v>
+        <v>0.017441155414464</v>
       </c>
       <c r="F33" t="n">
-        <v>10.6964757918253</v>
+        <v>11.6644693258573</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0000000000000000000000210912941201899</v>
+        <v>0.0000000000000000000000806487889058286</v>
       </c>
       <c r="H33" t="n">
-        <v>364.000000000546</v>
+        <v>151.000000016411</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00965289239306992</v>
+        <v>0.0117933635926545</v>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.908179966523871</v>
+        <v>0.966573474747977</v>
       </c>
       <c r="L33" t="n">
-        <v>0.908179966523871</v>
+        <v>0.967485308061315</v>
       </c>
       <c r="M33" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>0.00000000000000000000390188941223514</v>
+        <v>0.000000000000000000014597430791955</v>
       </c>
     </row>
     <row r="34">
@@ -2403,40 +2391,40 @@
         <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>0.112521261870257</v>
+        <v>-0.268478672194615</v>
       </c>
       <c r="D34" t="n">
-        <v>1.08111595077716</v>
+        <v>0.830194527913322</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0105194705303078</v>
+        <v>0.0255001116894357</v>
       </c>
       <c r="F34" t="n">
-        <v>10.6964757918253</v>
+        <v>-10.5285292654558</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0000000000000000000000210912941201899</v>
+        <v>0.000000000000000000000095248711260688</v>
       </c>
       <c r="H34" t="n">
-        <v>364.000000000546</v>
+        <v>356.000000007456</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00965289239306992</v>
+        <v>0.0567223045739209</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.908179966523871</v>
+        <v>0.95228805536373</v>
       </c>
       <c r="L34" t="n">
-        <v>0.908179966523871</v>
+        <v>0.965649830170852</v>
       </c>
       <c r="M34" t="n">
         <v>9</v>
       </c>
       <c r="N34" t="n">
-        <v>0.00000000000000000000390188941223514</v>
+        <v>0.0000000000000000000172400167381845</v>
       </c>
     </row>
     <row r="35">
@@ -2447,40 +2435,40 @@
         <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203441822339526</v>
+        <v>0.295460986309971</v>
       </c>
       <c r="D35" t="n">
-        <v>1.15144206406207</v>
+        <v>1.22727706811975</v>
       </c>
       <c r="E35" t="n">
-        <v>0.017441155414464</v>
+        <v>0.0296601040252827</v>
       </c>
       <c r="F35" t="n">
-        <v>11.6644693258573</v>
+        <v>9.96156271259588</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0000000000000000000000806487889058286</v>
+        <v>0.0000000000000000000377306196174034</v>
       </c>
       <c r="H35" t="n">
-        <v>151.000000016411</v>
+        <v>273.999999995915</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0117933635926545</v>
+        <v>0.0596857386028694</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.966573474747977</v>
+        <v>0.924927538497496</v>
       </c>
       <c r="L35" t="n">
-        <v>0.967485308061315</v>
+        <v>0.943090707190017</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0000000000000000000149200259475783</v>
+        <v>0.00000000000000000682924215075001</v>
       </c>
     </row>
     <row r="36">
@@ -2491,40 +2479,40 @@
         <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.268478672194615</v>
+        <v>-0.234776606975779</v>
       </c>
       <c r="D36" t="n">
-        <v>0.830194527913322</v>
+        <v>0.849816578157605</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0255001116894357</v>
+        <v>0.0228106800458226</v>
       </c>
       <c r="F36" t="n">
-        <v>-10.5285292654558</v>
+        <v>-10.2923984074195</v>
       </c>
       <c r="G36" t="n">
-        <v>0.000000000000000000000095248711260688</v>
+        <v>0.0000000000000000000458950224072849</v>
       </c>
       <c r="H36" t="n">
-        <v>356.000000007456</v>
+        <v>192.000000041138</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0567223045739209</v>
+        <v>0.0252158529397169</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.95228805536373</v>
+        <v>0.93886605275202</v>
       </c>
       <c r="L36" t="n">
-        <v>0.965649830170852</v>
+        <v>0.943549742784582</v>
       </c>
       <c r="M36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0000000000000000000176210115832273</v>
+        <v>0.00000000000000000830699905571857</v>
       </c>
     </row>
     <row r="37">
@@ -2535,40 +2523,40 @@
         <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>0.295460986309971</v>
+        <v>0.284696393431016</v>
       </c>
       <c r="D37" t="n">
-        <v>1.22727706811975</v>
+        <v>1.21815388347802</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0296601040252827</v>
+        <v>0.0284468676536393</v>
       </c>
       <c r="F37" t="n">
-        <v>9.96156271259588</v>
+        <v>10.0080049901239</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0000000000000000000377306196174034</v>
+        <v>0.0000000000000000000762885076860328</v>
       </c>
       <c r="H37" t="n">
-        <v>273.999999995915</v>
+        <v>233.000000004219</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0596857386028694</v>
+        <v>0.0470595042425828</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.924927538497496</v>
+        <v>0.94102878392601</v>
       </c>
       <c r="L37" t="n">
-        <v>0.943090707190017</v>
+        <v>0.950207633278417</v>
       </c>
       <c r="M37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N37" t="n">
-        <v>0.00000000000000000698016462921963</v>
+        <v>0.0000000000000000138082198911719</v>
       </c>
     </row>
     <row r="38">
@@ -2579,40 +2567,40 @@
         <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>0.284696393431016</v>
+        <v>0.108682233256771</v>
       </c>
       <c r="D38" t="n">
-        <v>1.21815388347802</v>
+        <v>1.07824291270014</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0284468676536393</v>
+        <v>0.0111768053490303</v>
       </c>
       <c r="F38" t="n">
-        <v>10.0080049901239</v>
+        <v>9.72390856446291</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0000000000000000000762885076860328</v>
+        <v>0.0000000000000000000918050143968368</v>
       </c>
       <c r="H38" t="n">
-        <v>233.000000004219</v>
+        <v>321.999999987099</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0470595042425828</v>
+        <v>0.00968618043327645</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.94102878392601</v>
+        <v>0.908532152017585</v>
       </c>
       <c r="L38" t="n">
-        <v>0.950207633278417</v>
+        <v>0.908532152017585</v>
       </c>
       <c r="M38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N38" t="n">
-        <v>0.000000000000000014113373921916</v>
+        <v>0.0000000000000000166167076058275</v>
       </c>
     </row>
     <row r="39">
@@ -2623,40 +2611,40 @@
         <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.259462020113657</v>
+        <v>0.298042756473311</v>
       </c>
       <c r="D39" t="n">
-        <v>0.835399381148351</v>
+        <v>1.22947530409506</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0270236792482438</v>
+        <v>0.0273327809236782</v>
       </c>
       <c r="F39" t="n">
-        <v>-9.60128403427963</v>
+        <v>10.9042236611613</v>
       </c>
       <c r="G39" t="n">
-        <v>0.000000000000000000091131851728404</v>
+        <v>0.000000000000000000327212550001821</v>
       </c>
       <c r="H39" t="n">
-        <v>396.999999999001</v>
+        <v>109.999999996493</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0707809109646977</v>
+        <v>0.021722814240172</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.936252238396944</v>
+        <v>0.974673151489775</v>
       </c>
       <c r="L39" t="n">
-        <v>0.954994726949332</v>
+        <v>0.976134443485811</v>
       </c>
       <c r="M39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0000000000000000168593925697547</v>
+        <v>0.0000000000000000592254715503297</v>
       </c>
     </row>
     <row r="40">
@@ -2667,40 +2655,40 @@
         <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>0.298042756473311</v>
+        <v>0.175157293296578</v>
       </c>
       <c r="D40" t="n">
-        <v>1.22947530409506</v>
+        <v>1.1290874995758</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0273327809236782</v>
+        <v>0.0162224571661095</v>
       </c>
       <c r="F40" t="n">
-        <v>10.9042236611613</v>
+        <v>10.7972110206893</v>
       </c>
       <c r="G40" t="n">
-        <v>0.000000000000000000327212550001821</v>
+        <v>0.000000000000000000466740045174805</v>
       </c>
       <c r="H40" t="n">
-        <v>109.999999996493</v>
+        <v>111.999999997827</v>
       </c>
       <c r="I40" t="n">
-        <v>0.021722814240172</v>
+        <v>0.00765211907995122</v>
       </c>
       <c r="J40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.974673151489775</v>
+        <v>0.957085320903263</v>
       </c>
       <c r="L40" t="n">
-        <v>0.976134443485811</v>
+        <v>0.957085320903263</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>0.000000000000000060534321750337</v>
+        <v>0.0000000000000000844799481766396</v>
       </c>
     </row>
     <row r="41">
@@ -2711,40 +2699,40 @@
         <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>0.20267138519221</v>
+        <v>0.226381756433371</v>
       </c>
       <c r="D41" t="n">
-        <v>1.15082732783223</v>
+        <v>1.16989719356603</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0198151562935184</v>
+        <v>0.0231247173165135</v>
       </c>
       <c r="F41" t="n">
-        <v>10.2280992483771</v>
+        <v>9.78960102883984</v>
       </c>
       <c r="G41" t="n">
-        <v>0.000000000000000000551876045473451</v>
+        <v>0.00000000000000000129748230302355</v>
       </c>
       <c r="H41" t="n">
-        <v>151.000000501493</v>
+        <v>192.000000007737</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0152223670110789</v>
+        <v>0.0259149313161735</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.95746178181695</v>
+        <v>0.95478187486972</v>
       </c>
       <c r="L41" t="n">
-        <v>0.960232308176798</v>
+        <v>0.957175499059704</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>0.000000000000000102097068412589</v>
+        <v>0.000000000000000234844296847262</v>
       </c>
     </row>
     <row r="42">
@@ -2755,40 +2743,40 @@
         <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>0.181622919187068</v>
+        <v>0.21770277065926</v>
       </c>
       <c r="D42" t="n">
-        <v>1.1341590082142</v>
+        <v>1.16288043596023</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0191609973975751</v>
+        <v>0.0228097283362994</v>
       </c>
       <c r="F42" t="n">
-        <v>9.47878210191986</v>
+        <v>9.54429476096862</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00000000000000000308793540304002</v>
+        <v>0.00000000000000000196175253416862</v>
       </c>
       <c r="H42" t="n">
-        <v>233.000000029585</v>
+        <v>233.000000020473</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0213508252984637</v>
+        <v>0.0302564986401915</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.933706072980779</v>
+        <v>0.943500720086627</v>
       </c>
       <c r="L42" t="n">
-        <v>0.93406440888457</v>
+        <v>0.946945322744258</v>
       </c>
       <c r="M42" t="n">
         <v>6</v>
       </c>
       <c r="N42" t="n">
-        <v>0.000000000000000571268049562403</v>
+        <v>0.00000000000000035507720868452</v>
       </c>
     </row>
     <row r="43">
@@ -2832,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="N43" t="n">
-        <v>0.000000000000000880923412320785</v>
+        <v>0.000000000000000861876419621957</v>
       </c>
     </row>
     <row r="44">
@@ -2876,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="N44" t="n">
-        <v>0.000000000000000880923412320785</v>
+        <v>0.000000000000000861876419621957</v>
       </c>
     </row>
     <row r="45">
@@ -2920,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>0.00000000000000279031402609391</v>
+        <v>0.0000000000000027299829120162</v>
       </c>
     </row>
     <row r="46">
@@ -2931,40 +2919,40 @@
         <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>0.135162288792208</v>
+        <v>0.208646878136289</v>
       </c>
       <c r="D46" t="n">
-        <v>1.09821634521616</v>
+        <v>1.15560382007654</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0133538624984162</v>
+        <v>0.020832962490847</v>
       </c>
       <c r="F46" t="n">
-        <v>10.1215875787428</v>
+        <v>10.015228426008</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0000000000000000171808507874986</v>
+        <v>0.0000000000000000360377703723453</v>
       </c>
       <c r="H46" t="n">
-        <v>111.999999998667</v>
+        <v>109.999999994206</v>
       </c>
       <c r="I46" t="n">
-        <v>0.00518516102237362</v>
+        <v>0.0126197430217557</v>
       </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.945944622057908</v>
+        <v>0.966850503028165</v>
       </c>
       <c r="L46" t="n">
-        <v>0.945944622057908</v>
+        <v>0.967148690979297</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>0.00000000000000317845739568724</v>
+        <v>0.00000000000000652283643739449</v>
       </c>
     </row>
     <row r="47">
@@ -2975,40 +2963,40 @@
         <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>0.208646878136289</v>
+        <v>-0.23714004919182</v>
       </c>
       <c r="D47" t="n">
-        <v>1.15560382007654</v>
+        <v>0.848425537051639</v>
       </c>
       <c r="E47" t="n">
-        <v>0.020832962490847</v>
+        <v>0.0271189561362356</v>
       </c>
       <c r="F47" t="n">
-        <v>10.015228426008</v>
+        <v>-8.74443868711301</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0000000000000000360377703723453</v>
+        <v>0.0000000000000000531067756441403</v>
       </c>
       <c r="H47" t="n">
-        <v>109.999999994206</v>
+        <v>423.869924071796</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0126197430217557</v>
+        <v>0.076032952223018</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.966850503028165</v>
+        <v>0.884561930938318</v>
       </c>
       <c r="L47" t="n">
-        <v>0.967148690979297</v>
+        <v>0.949866846316832</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N47" t="n">
-        <v>0.00000000000000666698751888387</v>
+        <v>0.0000000000000096123263915894</v>
       </c>
     </row>
     <row r="48">
@@ -3019,40 +3007,40 @@
         <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.258790829453827</v>
+        <v>-0.225815722710467</v>
       </c>
       <c r="D48" t="n">
-        <v>0.835788127693787</v>
+        <v>0.855111395392802</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0267356501482547</v>
+        <v>0.0263237714219473</v>
       </c>
       <c r="F48" t="n">
-        <v>-9.67961609382146</v>
+        <v>-8.5783955152488</v>
       </c>
       <c r="G48" t="n">
-        <v>0.000000000000000212387444358968</v>
+        <v>0.000000000000000105461657426877</v>
       </c>
       <c r="H48" t="n">
-        <v>109.999999997605</v>
+        <v>532.474881778082</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0207840389065579</v>
+        <v>0.0895492909499906</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.984163812740953</v>
+        <v>0.851035871063663</v>
       </c>
       <c r="L48" t="n">
-        <v>0.985364073676197</v>
+        <v>0.94651262100551</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0000000000000392916772064091</v>
+        <v>0.0000000000000190885599942648</v>
       </c>
     </row>
     <row r="49">
@@ -3063,40 +3051,40 @@
         <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>0.162659000988557</v>
+        <v>-0.258790829453827</v>
       </c>
       <c r="D49" t="n">
-        <v>1.11934828542146</v>
+        <v>0.835788127693787</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0187381585434373</v>
+        <v>0.0267356501482547</v>
       </c>
       <c r="F49" t="n">
-        <v>8.6806289215396</v>
+        <v>-9.67961609382146</v>
       </c>
       <c r="G49" t="n">
-        <v>0.000000000000000693473444621442</v>
+        <v>0.000000000000000212387444358968</v>
       </c>
       <c r="H49" t="n">
-        <v>233.000000334375</v>
+        <v>109.999999997605</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0204188962086799</v>
+        <v>0.0207840389065579</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.958439943353905</v>
+        <v>0.984163812740953</v>
       </c>
       <c r="L49" t="n">
-        <v>0.960551706211548</v>
+        <v>0.985364073676197</v>
       </c>
       <c r="M49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>0.000000000000128292587254967</v>
+        <v>0.0000000000000384421274289732</v>
       </c>
     </row>
     <row r="50">
@@ -3107,40 +3095,40 @@
         <v>15</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.285781448440295</v>
+        <v>0.162659000988557</v>
       </c>
       <c r="D50" t="n">
-        <v>0.820297167288089</v>
+        <v>1.11934828542146</v>
       </c>
       <c r="E50" t="n">
-        <v>0.032258126569176</v>
+        <v>0.0187381585434373</v>
       </c>
       <c r="F50" t="n">
-        <v>-8.85920785968306</v>
+        <v>8.6806289215396</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00000000000000183898955214821</v>
+        <v>0.000000000000000693473444621442</v>
       </c>
       <c r="H50" t="n">
-        <v>153.999999998128</v>
+        <v>233.000000334375</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0403427470611924</v>
+        <v>0.0204188962086799</v>
       </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.977487471824209</v>
+        <v>0.958439943353905</v>
       </c>
       <c r="L50" t="n">
-        <v>0.977487471824209</v>
+        <v>0.960551706211548</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N50" t="n">
-        <v>0.000000000000340213067147419</v>
+        <v>0.000000000000125518693476481</v>
       </c>
     </row>
     <row r="51">
@@ -3151,40 +3139,40 @@
         <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>0.22017192650506</v>
+        <v>-0.267224934589704</v>
       </c>
       <c r="D51" t="n">
-        <v>1.16487239647438</v>
+        <v>0.830916301026168</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0238654541169398</v>
+        <v>0.0320447158105731</v>
       </c>
       <c r="F51" t="n">
-        <v>9.2255494249649</v>
+        <v>-8.33912636858316</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00000000000000232625925027162</v>
+        <v>0.00000000000000165874647657545</v>
       </c>
       <c r="H51" t="n">
-        <v>109.999999987711</v>
+        <v>356.000000013664</v>
       </c>
       <c r="I51" t="n">
-        <v>0.016561049406041</v>
+        <v>0.0895741201619513</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.975071674809743</v>
+        <v>0.932238371072652</v>
       </c>
       <c r="L51" t="n">
-        <v>0.975211619991024</v>
+        <v>0.94873320975601</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N51" t="n">
-        <v>0.00000000000043035796130025</v>
+        <v>0.000000000000300233112260157</v>
       </c>
     </row>
     <row r="52">
@@ -3195,40 +3183,40 @@
         <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.256282034877157</v>
+        <v>-0.285781448440295</v>
       </c>
       <c r="D52" t="n">
-        <v>0.837242797507945</v>
+        <v>0.820297167288089</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0306869392815162</v>
+        <v>0.032258126569176</v>
       </c>
       <c r="F52" t="n">
-        <v>-8.3515020030533</v>
+        <v>-8.85920785968306</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0000000000000132166360854229</v>
+        <v>0.00000000000000183898955214821</v>
       </c>
       <c r="H52" t="n">
-        <v>191.999999996531</v>
+        <v>153.999999998128</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0456356609811153</v>
+        <v>0.0403427470611924</v>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0.96362342667027</v>
+        <v>0.977487471824209</v>
       </c>
       <c r="L52" t="n">
-        <v>0.972373138572758</v>
+        <v>0.977487471824209</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="n">
-        <v>0.00000000000244507767580323</v>
+        <v>0.000000000000332857108938826</v>
       </c>
     </row>
     <row r="53">
@@ -3239,40 +3227,40 @@
         <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>0.126590157342741</v>
+        <v>0.22017192650506</v>
       </c>
       <c r="D53" t="n">
-        <v>1.09171036720871</v>
+        <v>1.16487239647438</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0144678535768397</v>
+        <v>0.0238654541169398</v>
       </c>
       <c r="F53" t="n">
-        <v>8.74975383669821</v>
+        <v>9.2255494249649</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0000000000000281884713551653</v>
+        <v>0.00000000000000232625925027162</v>
       </c>
       <c r="H53" t="n">
-        <v>109.999999995734</v>
+        <v>109.999999987711</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00608634627166847</v>
+        <v>0.016561049406041</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.969411963971332</v>
+        <v>0.975071674809743</v>
       </c>
       <c r="L53" t="n">
-        <v>0.969841623595075</v>
+        <v>0.975211619991024</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>0.00000000000521486720070558</v>
+        <v>0.000000000000421052924299164</v>
       </c>
     </row>
     <row r="54">
@@ -3283,40 +3271,40 @@
         <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.395996670182692</v>
+        <v>-0.256282034877157</v>
       </c>
       <c r="D54" t="n">
-        <v>0.759964182236708</v>
+        <v>0.837242797507945</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0455026077353596</v>
+        <v>0.0306869392815162</v>
       </c>
       <c r="F54" t="n">
-        <v>-8.70272474241002</v>
+        <v>-8.3515020030533</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0000000000000360344918661914</v>
+        <v>0.0000000000000132166360854229</v>
       </c>
       <c r="H54" t="n">
-        <v>110.000000568338</v>
+        <v>191.999999996531</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0602034002654928</v>
+        <v>0.0456356609811153</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.849121843162207</v>
+        <v>0.96362342667027</v>
       </c>
       <c r="L54" t="n">
-        <v>0.858130786408697</v>
+        <v>0.972373138572758</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0000000000066663809952454</v>
+        <v>0.00000000000239221113146154</v>
       </c>
     </row>
     <row r="55">
@@ -3327,40 +3315,40 @@
         <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>0.211586010663977</v>
+        <v>0.214713040323797</v>
       </c>
       <c r="D55" t="n">
-        <v>1.15796047534012</v>
+        <v>1.16047306719358</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0246679040373785</v>
+        <v>0.025667587747127</v>
       </c>
       <c r="F55" t="n">
-        <v>8.57738097016136</v>
+        <v>8.36514293587367</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0000000000000692625649909168</v>
+        <v>0.0000000000000371763226872703</v>
       </c>
       <c r="H55" t="n">
-        <v>110.000000000306</v>
+        <v>151.000000012423</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0176934673129066</v>
+        <v>0.0255421408170197</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.965418127731505</v>
+        <v>0.955832868417644</v>
       </c>
       <c r="L55" t="n">
-        <v>0.965746178747324</v>
+        <v>0.958989188671724</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0000000000128135745233196</v>
+        <v>0.00000000000672891440639592</v>
       </c>
     </row>
     <row r="56">
@@ -3371,40 +3359,40 @@
         <v>15</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.262158658410067</v>
+        <v>0.206632000616778</v>
       </c>
       <c r="D56" t="n">
-        <v>0.833839338443909</v>
+        <v>1.15399102255547</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0322344288504185</v>
+        <v>0.0254795511911726</v>
       </c>
       <c r="F56" t="n">
-        <v>-8.13287741583992</v>
+        <v>8.10971900825185</v>
       </c>
       <c r="G56" t="n">
-        <v>0.000000000000141888918696351</v>
+        <v>0.0000000000000587531982909077</v>
       </c>
       <c r="H56" t="n">
-        <v>151.000000013942</v>
+        <v>192.000000065752</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0402834950207382</v>
+        <v>0.0314615956314814</v>
       </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.964143231720719</v>
+        <v>0.941049631840787</v>
       </c>
       <c r="L56" t="n">
-        <v>0.974698728436947</v>
+        <v>0.945532303603943</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="n">
-        <v>0.000000000026249449958825</v>
+        <v>0.0000000000106343288906543</v>
       </c>
     </row>
     <row r="57">
@@ -3415,40 +3403,40 @@
         <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>0.155755257574264</v>
+        <v>0.211586010663977</v>
       </c>
       <c r="D57" t="n">
-        <v>1.11400465222956</v>
+        <v>1.15796047534012</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0189502669321324</v>
+        <v>0.0246679040373785</v>
       </c>
       <c r="F57" t="n">
-        <v>8.21915902990067</v>
+        <v>8.57738097016136</v>
       </c>
       <c r="G57" t="n">
-        <v>0.000000000000401544655654676</v>
+        <v>0.0000000000000692625649909168</v>
       </c>
       <c r="H57" t="n">
-        <v>111.999999999145</v>
+        <v>110.000000000306</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0104418899346191</v>
+        <v>0.0176934673129066</v>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.901171740172034</v>
+        <v>0.965418127731505</v>
       </c>
       <c r="L57" t="n">
-        <v>0.901171740172034</v>
+        <v>0.965746178747324</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0000000000742857612961151</v>
+        <v>0.0000000000125365242633559</v>
       </c>
     </row>
     <row r="58">
@@ -3459,40 +3447,40 @@
         <v>15</v>
       </c>
       <c r="C58" t="n">
-        <v>0.155755257574264</v>
+        <v>-0.235381205043571</v>
       </c>
       <c r="D58" t="n">
-        <v>1.11400465222956</v>
+        <v>0.84946051550981</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0189502669321324</v>
+        <v>0.0281174201298295</v>
       </c>
       <c r="F58" t="n">
-        <v>8.21915902990067</v>
+        <v>-8.37136565007459</v>
       </c>
       <c r="G58" t="n">
-        <v>0.000000000000401544655654676</v>
+        <v>0.000000000000201990081796538</v>
       </c>
       <c r="H58" t="n">
-        <v>111.999999999145</v>
+        <v>110.000000014489</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0104418899346191</v>
+        <v>0.0229879046906366</v>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.901171740172034</v>
+        <v>0.946989430719202</v>
       </c>
       <c r="L58" t="n">
-        <v>0.901171740172034</v>
+        <v>0.948844490829762</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0000000000742857612961151</v>
+        <v>0.0000000000365602048051733</v>
       </c>
     </row>
     <row r="59">
@@ -3536,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="N59" t="n">
-        <v>0.000000000115028090051345</v>
+        <v>0.000000000112540996212397</v>
       </c>
     </row>
     <row r="60">
@@ -3547,40 +3535,40 @@
         <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>0.205130156202566</v>
+        <v>0.200681919576044</v>
       </c>
       <c r="D60" t="n">
-        <v>1.15279034386077</v>
+        <v>1.14924143931379</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0272004061730308</v>
+        <v>0.0253507237225142</v>
       </c>
       <c r="F60" t="n">
-        <v>7.5414372453729</v>
+        <v>7.91622052974434</v>
       </c>
       <c r="G60" t="n">
-        <v>0.000000000000895397592643672</v>
+        <v>0.00000000000210827034087786</v>
       </c>
       <c r="H60" t="n">
-        <v>245.964874324979</v>
+        <v>110.000000009486</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0454161501992559</v>
+        <v>0.0186865519269602</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.774818419656257</v>
+        <v>0.948193585846618</v>
       </c>
       <c r="L60" t="n">
-        <v>0.915704978715891</v>
+        <v>0.952388104085615</v>
       </c>
       <c r="M60" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>0.000000000165648554639079</v>
+        <v>0.000000000381596931698893</v>
       </c>
     </row>
     <row r="61">
@@ -3624,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="N61" t="n">
-        <v>0.000000000390030013062404</v>
+        <v>0.000000000381596931698893</v>
       </c>
     </row>
     <row r="62">
@@ -3635,40 +3623,40 @@
         <v>15</v>
       </c>
       <c r="C62" t="n">
-        <v>0.200681919576044</v>
+        <v>-0.231580694261525</v>
       </c>
       <c r="D62" t="n">
-        <v>1.14924143931379</v>
+        <v>0.85170121072274</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0253507237225142</v>
+        <v>0.0326042697856918</v>
       </c>
       <c r="F62" t="n">
-        <v>7.91622052974434</v>
+        <v>-7.10277199224848</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00000000000210827034087786</v>
+        <v>0.0000000000049785201811463</v>
       </c>
       <c r="H62" t="n">
-        <v>110.000000009486</v>
+        <v>438.00000062343</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0186865519269602</v>
+        <v>0.113336248757372</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.948193585846618</v>
+        <v>0.898916858238652</v>
       </c>
       <c r="L62" t="n">
-        <v>0.952388104085615</v>
+        <v>0.91939410805821</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N62" t="n">
-        <v>0.000000000390030013062404</v>
+        <v>0.00000000090111215278748</v>
       </c>
     </row>
     <row r="63">
@@ -3679,40 +3667,40 @@
         <v>15</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0800789687039139</v>
+        <v>0.199101940519852</v>
       </c>
       <c r="D63" t="n">
-        <v>1.05707590007211</v>
+        <v>1.14798352725722</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0109417272216822</v>
+        <v>0.0276812037443016</v>
       </c>
       <c r="F63" t="n">
-        <v>7.31867712304406</v>
+        <v>7.19267638643925</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0000000000138151266687717</v>
+        <v>0.00000000000677438625537084</v>
       </c>
       <c r="H63" t="n">
-        <v>150.999999993957</v>
+        <v>259.910416100326</v>
       </c>
       <c r="I63" t="n">
-        <v>0.00464150637501734</v>
+        <v>0.0495114764781669</v>
       </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.968360513853064</v>
+        <v>0.77385160261999</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9687871135329</v>
+        <v>0.890036153823334</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N63" t="n">
-        <v>0.00000000255579843372276</v>
+        <v>0.00000000122616391222212</v>
       </c>
     </row>
     <row r="64">
@@ -3723,40 +3711,40 @@
         <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.292166709856699</v>
+        <v>0.206380559000633</v>
       </c>
       <c r="D64" t="n">
-        <v>0.816674615257357</v>
+        <v>1.15378991554711</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0395255606024164</v>
+        <v>0.0285597275229418</v>
       </c>
       <c r="F64" t="n">
-        <v>-7.39184227633288</v>
+        <v>7.22627899145218</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0000000000301669554434935</v>
+        <v>0.00000000000960907640682624</v>
       </c>
       <c r="H64" t="n">
-        <v>110.000000034337</v>
+        <v>204.980919652073</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0454260028979647</v>
+        <v>0.0421632461781619</v>
       </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.928195496899901</v>
+        <v>0.766065836474291</v>
       </c>
       <c r="L64" t="n">
-        <v>0.930187516130099</v>
+        <v>0.921794169668888</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0000000055808867570463</v>
+        <v>0.00000000173924282963555</v>
       </c>
     </row>
     <row r="65">
@@ -3767,40 +3755,40 @@
         <v>15</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204159808949237</v>
+        <v>0.0800789687039139</v>
       </c>
       <c r="D65" t="n">
-        <v>1.15201524530383</v>
+        <v>1.05707590007211</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0286214570310414</v>
+        <v>0.0109417272216822</v>
       </c>
       <c r="F65" t="n">
-        <v>7.13310327730052</v>
+        <v>7.31867712304406</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0000000000381042987786201</v>
+        <v>0.0000000000138151266687717</v>
       </c>
       <c r="H65" t="n">
-        <v>151.000000079175</v>
+        <v>150.999999993957</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0317592809615533</v>
+        <v>0.00464150637501734</v>
       </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.934767115398387</v>
+        <v>0.968360513853064</v>
       </c>
       <c r="L65" t="n">
-        <v>0.939846972781694</v>
+        <v>0.9687871135329</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="n">
-        <v>0.00000000704929527404471</v>
+        <v>0.00000000250053792704768</v>
       </c>
     </row>
     <row r="66">
@@ -3811,40 +3799,40 @@
         <v>15</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.238589006980709</v>
+        <v>0.10751288421485</v>
       </c>
       <c r="D66" t="n">
-        <v>0.847573856254705</v>
+        <v>1.07736931748886</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0332717844857595</v>
+        <v>0.0149771010342638</v>
       </c>
       <c r="F66" t="n">
-        <v>-7.17091104875442</v>
+        <v>7.17848427201551</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0000000000910706245395133</v>
+        <v>0.0000000000820090895884149</v>
       </c>
       <c r="H66" t="n">
-        <v>110.000000016032</v>
+        <v>111.999999996612</v>
       </c>
       <c r="I66" t="n">
-        <v>0.032188492384897</v>
+        <v>0.00652234799520199</v>
       </c>
       <c r="J66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>0.946317052077408</v>
+        <v>0.950641842879218</v>
       </c>
       <c r="L66" t="n">
-        <v>0.949627118424487</v>
+        <v>0.950641842879218</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>0.00000001684806553981</v>
+        <v>0.0000000148436452155031</v>
       </c>
     </row>
     <row r="67">
@@ -3855,40 +3843,40 @@
         <v>15</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.206861876775067</v>
+        <v>0.229110163546655</v>
       </c>
       <c r="D67" t="n">
-        <v>0.866419803222141</v>
+        <v>1.17211178218774</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0312568855471192</v>
+        <v>0.0328828254716806</v>
       </c>
       <c r="F67" t="n">
-        <v>-6.6181218363303</v>
+        <v>6.96747193284743</v>
       </c>
       <c r="G67" t="n">
-        <v>0.000000000128456649737441</v>
+        <v>0.0000000000932865902185222</v>
       </c>
       <c r="H67" t="n">
-        <v>368.734360834689</v>
+        <v>150.99999999992</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0883802802667936</v>
+        <v>0.0419204020265006</v>
       </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.819617547705294</v>
+        <v>0.933398089560319</v>
       </c>
       <c r="L67" t="n">
-        <v>0.946623573939454</v>
+        <v>0.940924069823188</v>
       </c>
       <c r="M67" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0000000237644802014267</v>
+        <v>0.0000000168848728295525</v>
       </c>
     </row>
     <row r="68">
@@ -3932,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0000000431788331245252</v>
+        <v>0.0000000422452367326436</v>
       </c>
     </row>
     <row r="69">
@@ -3943,40 +3931,40 @@
         <v>15</v>
       </c>
       <c r="C69" t="n">
-        <v>0.19770041310203</v>
+        <v>0.206228561461971</v>
       </c>
       <c r="D69" t="n">
-        <v>1.14686884322041</v>
+        <v>1.15366836249239</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0303160858255185</v>
+        <v>0.0304526469713362</v>
       </c>
       <c r="F69" t="n">
-        <v>6.52130404432407</v>
+        <v>6.77210626899151</v>
       </c>
       <c r="G69" t="n">
-        <v>0.000000000697098605292776</v>
+        <v>0.000000000463787162845131</v>
       </c>
       <c r="H69" t="n">
-        <v>177.971041577149</v>
+        <v>122.999781349275</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0415700196269816</v>
+        <v>0.0299609813211961</v>
       </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.762467345805645</v>
+        <v>0.771045291393704</v>
       </c>
       <c r="L69" t="n">
-        <v>0.916943048249666</v>
+        <v>0.953532374842317</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="n">
-        <v>0.000000128963241979164</v>
+        <v>0.0000000839454764749687</v>
       </c>
     </row>
     <row r="70">
@@ -3987,40 +3975,40 @@
         <v>15</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.265834372959645</v>
+        <v>0.176703995348585</v>
       </c>
       <c r="D70" t="n">
-        <v>0.831717577329045</v>
+        <v>1.13029863454756</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0396350156274018</v>
+        <v>0.0272403886362311</v>
       </c>
       <c r="F70" t="n">
-        <v>-6.70705861349175</v>
+        <v>6.48683826461858</v>
       </c>
       <c r="G70" t="n">
-        <v>0.000000000845168547120429</v>
+        <v>0.00000000072577597482174</v>
       </c>
       <c r="H70" t="n">
-        <v>111.999999999525</v>
+        <v>192.000000070165</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0456779405623459</v>
+        <v>0.0359603405402564</v>
       </c>
       <c r="J70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.913519425273719</v>
+        <v>0.938226264363331</v>
       </c>
       <c r="L70" t="n">
-        <v>0.913519425273719</v>
+        <v>0.939120442975578</v>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N70" t="n">
-        <v>0.000000156356181217279</v>
+        <v>0.000000131365451442735</v>
       </c>
     </row>
     <row r="71">
@@ -4031,40 +4019,40 @@
         <v>15</v>
       </c>
       <c r="C71" t="n">
-        <v>0.198516379244616</v>
+        <v>-0.216949145129621</v>
       </c>
       <c r="D71" t="n">
-        <v>1.14751767808031</v>
+        <v>0.86038295849878</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0305974056984533</v>
+        <v>0.0335797003813772</v>
       </c>
       <c r="F71" t="n">
-        <v>6.48801343489886</v>
+        <v>-6.46072307571682</v>
       </c>
       <c r="G71" t="n">
-        <v>0.00000000257024617702789</v>
+        <v>0.000000000836439134954342</v>
       </c>
       <c r="H71" t="n">
-        <v>110.000000060708</v>
+        <v>191.999999993227</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0272218513084486</v>
+        <v>0.0546450503809947</v>
       </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.937411660119753</v>
+        <v>0.963957347438783</v>
       </c>
       <c r="L71" t="n">
-        <v>0.94478101767956</v>
+        <v>0.966420699622883</v>
       </c>
       <c r="M71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N71" t="n">
-        <v>0.000000475495542750159</v>
+        <v>0.000000151395483426736</v>
       </c>
     </row>
     <row r="72">
@@ -4075,40 +4063,40 @@
         <v>15</v>
       </c>
       <c r="C72" t="n">
-        <v>0.159898437957225</v>
+        <v>-0.251123069396348</v>
       </c>
       <c r="D72" t="n">
-        <v>1.11720848668239</v>
+        <v>0.840242072153692</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0253546521560742</v>
+        <v>0.0398409612010888</v>
       </c>
       <c r="F72" t="n">
-        <v>6.30647334354846</v>
+        <v>-6.30313782162175</v>
       </c>
       <c r="G72" t="n">
-        <v>0.000000006109684876841</v>
+        <v>0.00000000116111161252358</v>
       </c>
       <c r="H72" t="n">
-        <v>109.999999996132</v>
+        <v>274.000001142545</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0186923438377835</v>
+        <v>0.107692348544178</v>
       </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.981222545726963</v>
+        <v>0.89868388741348</v>
       </c>
       <c r="L72" t="n">
-        <v>0.981791306775467</v>
+        <v>0.9305695406243</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N72" t="n">
-        <v>0.00000113029170221559</v>
+        <v>0.000000210161201866769</v>
       </c>
     </row>
     <row r="73">
@@ -4119,40 +4107,40 @@
         <v>15</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.170172995175491</v>
+        <v>-0.177743194354098</v>
       </c>
       <c r="D73" t="n">
-        <v>0.888736105436754</v>
+        <v>0.884084887801278</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0270904925513772</v>
+        <v>0.0289433389277172</v>
       </c>
       <c r="F73" t="n">
-        <v>-6.28165009745604</v>
+        <v>-6.14107428303251</v>
       </c>
       <c r="G73" t="n">
-        <v>0.00000000687209815334064</v>
+        <v>0.00000000176061922377769</v>
       </c>
       <c r="H73" t="n">
-        <v>110.000000000695</v>
+        <v>464.794142555923</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0213394022587395</v>
+        <v>0.0947264458752712</v>
       </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.94978284587604</v>
+        <v>0.900056067028012</v>
       </c>
       <c r="L73" t="n">
-        <v>0.954057677304249</v>
+        <v>0.945501577734763</v>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N73" t="n">
-        <v>0.00000127133815836802</v>
+        <v>0.000000318672079503762</v>
       </c>
     </row>
     <row r="74">
@@ -4163,40 +4151,40 @@
         <v>15</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0618513833652578</v>
+        <v>0.21040056533051</v>
       </c>
       <c r="D74" t="n">
-        <v>1.0438043962508</v>
+        <v>1.15700938381195</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0102426731218518</v>
+        <v>0.0332017284818028</v>
       </c>
       <c r="F74" t="n">
-        <v>6.03859779858674</v>
+        <v>6.33703650235638</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0000000111884887540351</v>
+        <v>0.00000000217191502200036</v>
       </c>
       <c r="H74" t="n">
-        <v>153.999999994699</v>
+        <v>163.990771297954</v>
       </c>
       <c r="I74" t="n">
-        <v>0.00406737121163668</v>
+        <v>0.0462989005155331</v>
       </c>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0.947777954577694</v>
+        <v>0.743678039754169</v>
       </c>
       <c r="L74" t="n">
-        <v>0.947777954577694</v>
+        <v>0.913753233062095</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N74" t="n">
-        <v>0.00000206987041949649</v>
+        <v>0.000000393116618982066</v>
       </c>
     </row>
     <row r="75">
@@ -4207,40 +4195,40 @@
         <v>15</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.112687832290905</v>
+        <v>0.184544830816012</v>
       </c>
       <c r="D75" t="n">
-        <v>0.924863376707002</v>
+        <v>1.13645836492215</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0200808150452338</v>
+        <v>0.0304174810233068</v>
       </c>
       <c r="F75" t="n">
-        <v>-5.61171606018307</v>
+        <v>6.06706487873232</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0000000239690352347158</v>
+        <v>0.00000000522612777829185</v>
       </c>
       <c r="H75" t="n">
-        <v>1448.12469867027</v>
+        <v>233.000000018336</v>
       </c>
       <c r="I75" t="n">
-        <v>0.139586727282574</v>
+        <v>0.0538052848279416</v>
       </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0.768049035465824</v>
+        <v>0.899474055037513</v>
       </c>
       <c r="L75" t="n">
-        <v>0.883532304610679</v>
+        <v>0.91075500913261</v>
       </c>
       <c r="M75" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="N75" t="n">
-        <v>0.00000443427151842242</v>
+        <v>0.000000945929127870824</v>
       </c>
     </row>
     <row r="76">
@@ -4251,40 +4239,40 @@
         <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.21273992006693</v>
+        <v>0.159898437957225</v>
       </c>
       <c r="D76" t="n">
-        <v>0.86289688811289</v>
+        <v>1.11720848668239</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0354371984110646</v>
+        <v>0.0253546521560742</v>
       </c>
       <c r="F76" t="n">
-        <v>-6.00329398501507</v>
+        <v>6.30647334354846</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0000000253333392726611</v>
+        <v>0.000000006109684876841</v>
       </c>
       <c r="H76" t="n">
-        <v>110.00000003354</v>
+        <v>109.999999996132</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0365146555233162</v>
+        <v>0.0186923438377835</v>
       </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.913931107870967</v>
+        <v>0.981222545726963</v>
       </c>
       <c r="L76" t="n">
-        <v>0.921554479143179</v>
+        <v>0.981791306775467</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="n">
-        <v>0.00000468666776544231</v>
+        <v>0.00000110585296270822</v>
       </c>
     </row>
     <row r="77">
@@ -4295,40 +4283,40 @@
         <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.232601869655982</v>
+        <v>-0.170172995175491</v>
       </c>
       <c r="D77" t="n">
-        <v>0.851098568752468</v>
+        <v>0.888736105436754</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0392727759359172</v>
+        <v>0.0270904925513772</v>
       </c>
       <c r="F77" t="n">
-        <v>-5.92272545326378</v>
+        <v>-6.28165009745604</v>
       </c>
       <c r="G77" t="n">
-        <v>0.000000035450062475064</v>
+        <v>0.00000000687209815334064</v>
       </c>
       <c r="H77" t="n">
-        <v>111.999999997412</v>
+        <v>110.000000000695</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0448468193408787</v>
+        <v>0.0213394022587395</v>
       </c>
       <c r="J77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0.915166815707376</v>
+        <v>0.94978284587604</v>
       </c>
       <c r="L77" t="n">
-        <v>0.915166815707376</v>
+        <v>0.954057677304249</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="n">
-        <v>0.00000655826155788683</v>
+        <v>0.00000124384976575466</v>
       </c>
     </row>
     <row r="78">
@@ -4339,40 +4327,40 @@
         <v>15</v>
       </c>
       <c r="C78" t="n">
-        <v>0.193591443980346</v>
+        <v>-0.255392687515085</v>
       </c>
       <c r="D78" t="n">
-        <v>1.14360706988226</v>
+        <v>0.837759073784742</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0333648914910844</v>
+        <v>0.0431038211672962</v>
       </c>
       <c r="F78" t="n">
-        <v>5.80225006972002</v>
+        <v>-5.92505909218222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0000000371479829466352</v>
+        <v>0.00000000934449485158384</v>
       </c>
       <c r="H78" t="n">
-        <v>150.999998514462</v>
+        <v>274.00000081114</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0431585273879052</v>
+        <v>0.126054042316463</v>
       </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.953786075790036</v>
+        <v>0.899928601682013</v>
       </c>
       <c r="L78" t="n">
-        <v>0.953939970724026</v>
+        <v>0.920011757045769</v>
       </c>
       <c r="M78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N78" t="n">
-        <v>0.00000687237684512752</v>
+        <v>0.00000169135356813668</v>
       </c>
     </row>
     <row r="79">
@@ -4383,40 +4371,40 @@
         <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>0.193035134352421</v>
+        <v>0.0618513833652578</v>
       </c>
       <c r="D79" t="n">
-        <v>1.14316617491793</v>
+        <v>1.0438043962508</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0331440340455709</v>
+        <v>0.0102426731218518</v>
       </c>
       <c r="F79" t="n">
-        <v>5.82412913548816</v>
+        <v>6.03859779858674</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0000000390088060186169</v>
+        <v>0.0000000111884887540351</v>
       </c>
       <c r="H79" t="n">
-        <v>136.986709340181</v>
+        <v>153.999999994699</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0390399592830807</v>
+        <v>0.00406737121163668</v>
       </c>
       <c r="J79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>0.760410975322842</v>
+        <v>0.947777954577694</v>
       </c>
       <c r="L79" t="n">
-        <v>0.934705753542926</v>
+        <v>0.947777954577694</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="n">
-        <v>0.00000721662911344412</v>
+        <v>0.00000202511646448035</v>
       </c>
     </row>
     <row r="80">
@@ -4427,40 +4415,40 @@
         <v>15</v>
       </c>
       <c r="C80" t="n">
-        <v>0.193035134352421</v>
+        <v>-0.112687832290905</v>
       </c>
       <c r="D80" t="n">
-        <v>1.14316617491793</v>
+        <v>0.924863376707002</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0331440340455709</v>
+        <v>0.0200808150452338</v>
       </c>
       <c r="F80" t="n">
-        <v>5.82412913548816</v>
+        <v>-5.61171606018307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0000000390088060186169</v>
+        <v>0.0000000239690352347158</v>
       </c>
       <c r="H80" t="n">
-        <v>136.986709340181</v>
+        <v>1448.12469867027</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0390399592830807</v>
+        <v>0.139586727282574</v>
       </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.760410975322842</v>
+        <v>0.768049035465824</v>
       </c>
       <c r="L80" t="n">
-        <v>0.934705753542926</v>
+        <v>0.883532304610679</v>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N80" t="n">
-        <v>0.00000721662911344412</v>
+        <v>0.00000433839537748356</v>
       </c>
     </row>
     <row r="81">
@@ -4471,40 +4459,40 @@
         <v>15</v>
       </c>
       <c r="C81" t="n">
-        <v>0.193035134352421</v>
+        <v>0.193591443980346</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14316617491793</v>
+        <v>1.14360706988226</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0331440340455709</v>
+        <v>0.0333648914910844</v>
       </c>
       <c r="F81" t="n">
-        <v>5.82412913548816</v>
+        <v>5.80225006972002</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0000000390088060186169</v>
+        <v>0.0000000371479829466352</v>
       </c>
       <c r="H81" t="n">
-        <v>136.986709340181</v>
+        <v>150.999998514462</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0390399592830807</v>
+        <v>0.0431585273879052</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.760410975322842</v>
+        <v>0.953786075790036</v>
       </c>
       <c r="L81" t="n">
-        <v>0.934705753542926</v>
+        <v>0.953939970724026</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="n">
-        <v>0.00000721662911344412</v>
+        <v>0.00000672378491334098</v>
       </c>
     </row>
     <row r="82">
@@ -4515,40 +4503,40 @@
         <v>15</v>
       </c>
       <c r="C82" t="n">
-        <v>0.193035134352421</v>
+        <v>-0.126857903086763</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14316617491793</v>
+        <v>0.915823885202261</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0331440340455709</v>
+        <v>0.0219043763922447</v>
       </c>
       <c r="F82" t="n">
-        <v>5.82412913548816</v>
+        <v>-5.79144098033659</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0000000390088060186169</v>
+        <v>0.0000000380184157326941</v>
       </c>
       <c r="H82" t="n">
-        <v>136.986709340181</v>
+        <v>153.9999999962</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0390399592830807</v>
+        <v>0.0186015430297766</v>
       </c>
       <c r="J82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>0.760410975322842</v>
+        <v>0.943000693976843</v>
       </c>
       <c r="L82" t="n">
-        <v>0.934705753542926</v>
+        <v>0.943000693976843</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="n">
-        <v>0.00000721662911344412</v>
+        <v>0.00000688133324761763</v>
       </c>
     </row>
     <row r="83">
@@ -4559,40 +4547,40 @@
         <v>15</v>
       </c>
       <c r="C83" t="n">
-        <v>0.193035134352421</v>
+        <v>0.221804989459199</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14316617491793</v>
+        <v>1.166191723825</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0331440340455709</v>
+        <v>0.0383650119980829</v>
       </c>
       <c r="F83" t="n">
-        <v>5.82412913548816</v>
+        <v>5.7814393351495</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0000000390088060186169</v>
+        <v>0.0000000411114377248364</v>
       </c>
       <c r="H83" t="n">
-        <v>136.986709340181</v>
+        <v>151.000000087957</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0390399592830807</v>
+        <v>0.0570634284145365</v>
       </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0.760410975322842</v>
+        <v>0.888384624235172</v>
       </c>
       <c r="L83" t="n">
-        <v>0.934705753542926</v>
+        <v>0.903701879692314</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="n">
-        <v>0.00000721662911344412</v>
+        <v>0.0000074411702281954</v>
       </c>
     </row>
     <row r="84">
@@ -4603,40 +4591,40 @@
         <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.265232724446555</v>
+        <v>0.156337523968406</v>
       </c>
       <c r="D84" t="n">
-        <v>0.832064501651596</v>
+        <v>1.1144543511382</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0449569550114049</v>
+        <v>0.0273131147306022</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.89970393633798</v>
+        <v>5.72389950799868</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0000000408855573794454</v>
+        <v>0.0000000543514037485051</v>
       </c>
       <c r="H84" t="n">
-        <v>110.000000007175</v>
+        <v>150.999999998611</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0587681776825577</v>
+        <v>0.0289220879298976</v>
       </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.939319118991462</v>
+        <v>0.916657538285174</v>
       </c>
       <c r="L84" t="n">
-        <v>0.959770978058569</v>
+        <v>0.926231580032446</v>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N84" t="n">
-        <v>0.00000756382811519741</v>
+        <v>0.00000983760407847943</v>
       </c>
     </row>
     <row r="85">
@@ -4647,40 +4635,40 @@
         <v>15</v>
       </c>
       <c r="C85" t="n">
-        <v>0.22853771469863</v>
+        <v>0.200084017155902</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17164679068245</v>
+        <v>1.14876525283497</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0402048079412543</v>
+        <v>0.0356349035962443</v>
       </c>
       <c r="F85" t="n">
-        <v>5.68433792875122</v>
+        <v>5.61483256480563</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0000000482151748043696</v>
+        <v>0.00000010539260156633</v>
       </c>
       <c r="H85" t="n">
-        <v>191.999999996393</v>
+        <v>136.983839942019</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0783345189541292</v>
+        <v>0.0451283858225305</v>
       </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.843413762839298</v>
+        <v>0.720627970927747</v>
       </c>
       <c r="L85" t="n">
-        <v>0.8565926593437</v>
+        <v>0.90910158988921</v>
       </c>
       <c r="M85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N85" t="n">
-        <v>0.00000891980733880838</v>
+        <v>0.0000190760608835057</v>
       </c>
     </row>
     <row r="86">
@@ -4691,40 +4679,40 @@
         <v>15</v>
       </c>
       <c r="C86" t="n">
-        <v>0.057643642819477</v>
+        <v>0.216910270794302</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04076448880267</v>
+        <v>1.16224181900568</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00999118429884061</v>
+        <v>0.037756706889768</v>
       </c>
       <c r="F86" t="n">
-        <v>5.76945045705603</v>
+        <v>5.74494675681275</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0000000717668350081504</v>
+        <v>0.000000108059221043872</v>
       </c>
       <c r="H86" t="n">
-        <v>111.999999999493</v>
+        <v>95.9958005832921</v>
       </c>
       <c r="I86" t="n">
-        <v>0.00290256789816191</v>
+        <v>0.0368454734995163</v>
       </c>
       <c r="J86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0.914662332008795</v>
+        <v>0.71795477148385</v>
       </c>
       <c r="L86" t="n">
-        <v>0.914662332008795</v>
+        <v>0.940683253742808</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0000132768644765078</v>
+        <v>0.0000195587190089408</v>
       </c>
     </row>
     <row r="87">
@@ -4735,40 +4723,40 @@
         <v>15</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216910270794302</v>
+        <v>0.148102721354159</v>
       </c>
       <c r="D87" t="n">
-        <v>1.16224181900568</v>
+        <v>1.10811124370368</v>
       </c>
       <c r="E87" t="n">
-        <v>0.037756706889768</v>
+        <v>0.0265706875372129</v>
       </c>
       <c r="F87" t="n">
-        <v>5.74494675681275</v>
+        <v>5.57391377798325</v>
       </c>
       <c r="G87" t="n">
-        <v>0.000000108059221043872</v>
+        <v>0.000000111651586445605</v>
       </c>
       <c r="H87" t="n">
-        <v>95.9958005832921</v>
+        <v>151.000000018204</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0368454734995163</v>
+        <v>0.027371132603454</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0.71795477148385</v>
+        <v>0.966468457721362</v>
       </c>
       <c r="L87" t="n">
-        <v>0.940683253742808</v>
+        <v>0.967721446707366</v>
       </c>
       <c r="M87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0000199909558931163</v>
+        <v>0.0000202089371466545</v>
       </c>
     </row>
     <row r="88">
@@ -4779,40 +4767,40 @@
         <v>15</v>
       </c>
       <c r="C88" t="n">
-        <v>0.255559258899158</v>
+        <v>0.187763592822152</v>
       </c>
       <c r="D88" t="n">
-        <v>1.19379842778975</v>
+        <v>1.13899672026725</v>
       </c>
       <c r="E88" t="n">
-        <v>0.046060500011466</v>
+        <v>0.0337698195301339</v>
       </c>
       <c r="F88" t="n">
-        <v>5.54833878997277</v>
+        <v>5.56010057011422</v>
       </c>
       <c r="G88" t="n">
-        <v>0.000000126089620818135</v>
+        <v>0.000000119236312195533</v>
       </c>
       <c r="H88" t="n">
-        <v>151.00000001316</v>
+        <v>150.999999999162</v>
       </c>
       <c r="I88" t="n">
-        <v>0.082251623792181</v>
+        <v>0.044212458337946</v>
       </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.823419414199606</v>
+        <v>0.930286564552194</v>
       </c>
       <c r="L88" t="n">
-        <v>0.85431412271039</v>
+        <v>0.933038538577286</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0000233265798513551</v>
+        <v>0.0000215817725073915</v>
       </c>
     </row>
     <row r="89">
@@ -4823,40 +4811,40 @@
         <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.176963395544214</v>
+        <v>0.121766833173384</v>
       </c>
       <c r="D89" t="n">
-        <v>0.884562878419716</v>
+        <v>1.08806657530552</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0323656756509922</v>
+        <v>0.0215583819745262</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.46762556272448</v>
+        <v>5.64823618568714</v>
       </c>
       <c r="G89" t="n">
-        <v>0.000000184667173333758</v>
+        <v>0.000000124555901559273</v>
       </c>
       <c r="H89" t="n">
-        <v>150.999999994084</v>
+        <v>111.999999999331</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0406122021549229</v>
+        <v>0.0135139022315323</v>
       </c>
       <c r="J89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0.872947615611374</v>
+        <v>0.831038312104704</v>
       </c>
       <c r="L89" t="n">
-        <v>0.87478293732192</v>
+        <v>0.831038312104704</v>
       </c>
       <c r="M89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0000341634270667453</v>
+        <v>0.0000225446181822284</v>
       </c>
     </row>
     <row r="90">
@@ -4867,40 +4855,40 @@
         <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0635673659099864</v>
+        <v>0.121766833173384</v>
       </c>
       <c r="D90" t="n">
-        <v>1.04504666555804</v>
+        <v>1.08806657530552</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0116376381676269</v>
+        <v>0.0215583819745262</v>
       </c>
       <c r="F90" t="n">
-        <v>5.4622222305223</v>
+        <v>5.64823618568714</v>
       </c>
       <c r="G90" t="n">
-        <v>0.000000286931023153845</v>
+        <v>0.000000124555901559273</v>
       </c>
       <c r="H90" t="n">
-        <v>111.999999996515</v>
+        <v>111.999999999331</v>
       </c>
       <c r="I90" t="n">
-        <v>0.00393802208935301</v>
+        <v>0.0135139022315323</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>0.949400635608857</v>
+        <v>0.831038312104704</v>
       </c>
       <c r="L90" t="n">
-        <v>0.949400635608857</v>
+        <v>0.831038312104704</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0000530822392834613</v>
+        <v>0.0000225446181822284</v>
       </c>
     </row>
     <row r="91">
@@ -4911,40 +4899,40 @@
         <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202746301579515</v>
+        <v>0.255559258899158</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15088708964046</v>
+        <v>1.19379842778975</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0384614125680188</v>
+        <v>0.046060500011466</v>
       </c>
       <c r="F91" t="n">
-        <v>5.27142109564904</v>
+        <v>5.54833878997277</v>
       </c>
       <c r="G91" t="n">
-        <v>0.000000323912646659832</v>
+        <v>0.000000126089620818135</v>
       </c>
       <c r="H91" t="n">
-        <v>218.929765162772</v>
+        <v>151.00000001316</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0812466233310255</v>
+        <v>0.082251623792181</v>
       </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.770638128692615</v>
+        <v>0.823419414199606</v>
       </c>
       <c r="L91" t="n">
-        <v>0.887571974840998</v>
+        <v>0.85431412271039</v>
       </c>
       <c r="M91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0000599238396320689</v>
+        <v>0.0000228222213680825</v>
       </c>
     </row>
     <row r="92">
@@ -4955,40 +4943,40 @@
         <v>15</v>
       </c>
       <c r="C92" t="n">
-        <v>0.129874531939404</v>
+        <v>0.164247449525449</v>
       </c>
       <c r="D92" t="n">
-        <v>1.09419853704765</v>
+        <v>1.12058139864675</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0239318301886734</v>
+        <v>0.0297314497002307</v>
       </c>
       <c r="F92" t="n">
-        <v>5.42685331274294</v>
+        <v>5.52436733430373</v>
       </c>
       <c r="G92" t="n">
-        <v>0.000000345077736727149</v>
+        <v>0.000000217466981038771</v>
       </c>
       <c r="H92" t="n">
-        <v>110.0000000103</v>
+        <v>111.999999998565</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0166532987350655</v>
+        <v>0.0257028107909875</v>
       </c>
       <c r="J92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0.863262655309357</v>
+        <v>0.910152184158059</v>
       </c>
       <c r="L92" t="n">
-        <v>0.865573892318305</v>
+        <v>0.910152184158059</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0000638393812945226</v>
+        <v>0.0000393615235680175</v>
       </c>
     </row>
     <row r="93">
@@ -4999,40 +4987,40 @@
         <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>0.160925602888565</v>
+        <v>0.191000306754751</v>
       </c>
       <c r="D93" t="n">
-        <v>1.11800419607341</v>
+        <v>1.14155494985123</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0302573121457926</v>
+        <v>0.0344786223212373</v>
       </c>
       <c r="F93" t="n">
-        <v>5.31856901608302</v>
+        <v>5.5396733945806</v>
       </c>
       <c r="G93" t="n">
-        <v>0.000000541133762299587</v>
+        <v>0.00000026447581880333</v>
       </c>
       <c r="H93" t="n">
-        <v>111.999999999506</v>
+        <v>95.996561273685</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0266200666671413</v>
+        <v>0.030725271803792</v>
       </c>
       <c r="J93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.958268242055487</v>
+        <v>0.727316353667092</v>
       </c>
       <c r="L93" t="n">
-        <v>0.958268242055487</v>
+        <v>0.951275073791892</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>0.000100109746025424</v>
+        <v>0.0000478701232034026</v>
       </c>
     </row>
     <row r="94">
@@ -5043,40 +5031,40 @@
         <v>15</v>
       </c>
       <c r="C94" t="n">
-        <v>0.196104604226672</v>
+        <v>0.191000306754751</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14560095805457</v>
+        <v>1.14155494985123</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0384810811716967</v>
+        <v>0.0344786223212373</v>
       </c>
       <c r="F94" t="n">
-        <v>5.09613031275508</v>
+        <v>5.5396733945806</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00000126986141449688</v>
+        <v>0.00000026447581880333</v>
       </c>
       <c r="H94" t="n">
-        <v>123.000003877409</v>
+        <v>95.996561273685</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0478410242630723</v>
+        <v>0.030725271803792</v>
       </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0.727924642753737</v>
+        <v>0.727316353667092</v>
       </c>
       <c r="L94" t="n">
-        <v>0.910181058738299</v>
+        <v>0.951275073791892</v>
       </c>
       <c r="M94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N94" t="n">
-        <v>0.000234924361681923</v>
+        <v>0.0000478701232034026</v>
       </c>
     </row>
     <row r="95">
@@ -5087,40 +5075,40 @@
         <v>15</v>
       </c>
       <c r="C95" t="n">
-        <v>0.196104604226672</v>
+        <v>0.191000306754751</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14560095805457</v>
+        <v>1.14155494985123</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0384810811716967</v>
+        <v>0.0344786223212373</v>
       </c>
       <c r="F95" t="n">
-        <v>5.09613031275508</v>
+        <v>5.5396733945806</v>
       </c>
       <c r="G95" t="n">
-        <v>0.00000126986141449688</v>
+        <v>0.00000026447581880333</v>
       </c>
       <c r="H95" t="n">
-        <v>123.000003877409</v>
+        <v>95.996561273685</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0478410242630723</v>
+        <v>0.030725271803792</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.727924642753737</v>
+        <v>0.727316353667092</v>
       </c>
       <c r="L95" t="n">
-        <v>0.910181058738299</v>
+        <v>0.951275073791892</v>
       </c>
       <c r="M95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N95" t="n">
-        <v>0.000234924361681923</v>
+        <v>0.0000478701232034026</v>
       </c>
     </row>
     <row r="96">
@@ -5131,40 +5119,40 @@
         <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>0.18807108773753</v>
+        <v>0.0635673659099864</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13923951102851</v>
+        <v>1.04504666555804</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0367248305450903</v>
+        <v>0.0116376381676269</v>
       </c>
       <c r="F96" t="n">
-        <v>5.12108796544666</v>
+        <v>5.4622222305223</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00000130441064969371</v>
+        <v>0.000000286931023153845</v>
       </c>
       <c r="H96" t="n">
-        <v>110.000000005653</v>
+        <v>111.999999996515</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0392164293459844</v>
+        <v>0.00393802208935301</v>
       </c>
       <c r="J96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0.914198707563969</v>
+        <v>0.949400635608857</v>
       </c>
       <c r="L96" t="n">
-        <v>0.931360297567341</v>
+        <v>0.949400635608857</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="n">
-        <v>0.000241315970193336</v>
+        <v>0.0000519345151908459</v>
       </c>
     </row>
     <row r="97">
@@ -5175,40 +5163,40 @@
         <v>15</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.248484010601491</v>
+        <v>0.202746301579515</v>
       </c>
       <c r="D97" t="n">
-        <v>0.841780496799975</v>
+        <v>1.15088708964046</v>
       </c>
       <c r="E97" t="n">
-        <v>0.049874829425173</v>
+        <v>0.0384614125680188</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.9821525901014</v>
+        <v>5.27142109564904</v>
       </c>
       <c r="G97" t="n">
-        <v>0.00000139802153615144</v>
+        <v>0.000000323912646659832</v>
       </c>
       <c r="H97" t="n">
-        <v>192.000000126358</v>
+        <v>218.929765162772</v>
       </c>
       <c r="I97" t="n">
-        <v>0.120548009570751</v>
+        <v>0.0812466233310255</v>
       </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.888253576745583</v>
+        <v>0.770638128692615</v>
       </c>
       <c r="L97" t="n">
-        <v>0.918791067342688</v>
+        <v>0.887571974840998</v>
       </c>
       <c r="M97" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N97" t="n">
-        <v>0.000258633984188016</v>
+        <v>0.0000586281890454295</v>
       </c>
     </row>
     <row r="98">
@@ -5219,40 +5207,40 @@
         <v>15</v>
       </c>
       <c r="C98" t="n">
-        <v>0.148896954778512</v>
+        <v>-0.14527336918957</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1087214497857</v>
+        <v>0.904208027394328</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0305623176425588</v>
+        <v>0.0291374609977575</v>
       </c>
       <c r="F98" t="n">
-        <v>4.87191307020412</v>
+        <v>-4.98579369014861</v>
       </c>
       <c r="G98" t="n">
-        <v>0.00000166642246979317</v>
+        <v>0.000000771792373292925</v>
       </c>
       <c r="H98" t="n">
-        <v>356.000000007962</v>
+        <v>729.00352715991</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0814783588063387</v>
+        <v>0.149132273911078</v>
       </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.904637579822607</v>
+        <v>0.723579984347337</v>
       </c>
       <c r="L98" t="n">
-        <v>0.906001171352737</v>
+        <v>0.879248790846273</v>
       </c>
       <c r="M98" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N98" t="n">
-        <v>0.000308288156911736</v>
+        <v>0.000139694419566019</v>
       </c>
     </row>
     <row r="99">
@@ -5263,40 +5251,40 @@
         <v>15</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.115688600248506</v>
+        <v>0.16490841270758</v>
       </c>
       <c r="D99" t="n">
-        <v>0.922941684297049</v>
+        <v>1.12109490477067</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0232083519409907</v>
+        <v>0.0324769210096065</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.98478308768562</v>
+        <v>5.07771080450642</v>
       </c>
       <c r="G99" t="n">
-        <v>0.00000227992893277135</v>
+        <v>0.00000111038007942431</v>
       </c>
       <c r="H99" t="n">
-        <v>111.999999997847</v>
+        <v>150.999999999914</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0156616332869833</v>
+        <v>0.0408918615942436</v>
       </c>
       <c r="J99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.86836735420206</v>
+        <v>0.940271891089563</v>
       </c>
       <c r="L99" t="n">
-        <v>0.86836735420206</v>
+        <v>0.942435442706669</v>
       </c>
       <c r="M99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0004217868525627</v>
+        <v>0.000200978794375801</v>
       </c>
     </row>
     <row r="100">
@@ -5307,40 +5295,40 @@
         <v>15</v>
       </c>
       <c r="C100" t="n">
-        <v>0.198006753571339</v>
+        <v>-0.248484010601491</v>
       </c>
       <c r="D100" t="n">
-        <v>1.14711239409785</v>
+        <v>0.841780496799975</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0406300035719612</v>
+        <v>0.049874829425173</v>
       </c>
       <c r="F100" t="n">
-        <v>4.87341216253261</v>
+        <v>-4.9821525901014</v>
       </c>
       <c r="G100" t="n">
-        <v>0.00000371158901863172</v>
+        <v>0.00000139802153615144</v>
       </c>
       <c r="H100" t="n">
-        <v>110.000000046626</v>
+        <v>192.000000126358</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0480001029167204</v>
+        <v>0.120548009570751</v>
       </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.928643229837285</v>
+        <v>0.888253576745583</v>
       </c>
       <c r="L100" t="n">
-        <v>0.931135929526296</v>
+        <v>0.918791067342688</v>
       </c>
       <c r="M100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N100" t="n">
-        <v>0.000686643968446867</v>
+        <v>0.00025304189804341</v>
       </c>
     </row>
     <row r="101">
@@ -5351,40 +5339,40 @@
         <v>15</v>
       </c>
       <c r="C101" t="n">
-        <v>0.173917138286895</v>
+        <v>0.148896954778512</v>
       </c>
       <c r="D101" t="n">
-        <v>1.12811734176692</v>
+        <v>1.1087214497857</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0357302571187337</v>
+        <v>0.0305623176425588</v>
       </c>
       <c r="F101" t="n">
-        <v>4.86750312792203</v>
+        <v>4.87191307020412</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0000038039801862225</v>
+        <v>0.00000166642246979317</v>
       </c>
       <c r="H101" t="n">
-        <v>110.000000007262</v>
+        <v>356.000000007962</v>
       </c>
       <c r="I101" t="n">
-        <v>0.03712109088349</v>
+        <v>0.0814783588063387</v>
       </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.822154697932427</v>
+        <v>0.904637579822607</v>
       </c>
       <c r="L101" t="n">
-        <v>0.839853381578915</v>
+        <v>0.906001171352737</v>
       </c>
       <c r="M101" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N101" t="n">
-        <v>0.000703736334451163</v>
+        <v>0.000301622467032563</v>
       </c>
     </row>
     <row r="102">
@@ -5395,40 +5383,40 @@
         <v>15</v>
       </c>
       <c r="C102" t="n">
-        <v>0.152178844693042</v>
+        <v>-0.115688600248506</v>
       </c>
       <c r="D102" t="n">
-        <v>1.1112464765584</v>
+        <v>0.922941684297049</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0313287595833262</v>
+        <v>0.0232083519409907</v>
       </c>
       <c r="F102" t="n">
-        <v>4.8574806892142</v>
+        <v>-4.98478308768562</v>
       </c>
       <c r="G102" t="n">
-        <v>0.00000389123255501039</v>
+        <v>0.00000227992893277135</v>
       </c>
       <c r="H102" t="n">
-        <v>111.999999996814</v>
+        <v>111.999999997847</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0285387434551758</v>
+        <v>0.0156616332869833</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>0.96402881317747</v>
+        <v>0.86836735420206</v>
       </c>
       <c r="L102" t="n">
-        <v>0.96402881317747</v>
+        <v>0.86836735420206</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="n">
-        <v>0.000719878022676922</v>
+        <v>0.000412667136831615</v>
       </c>
     </row>
     <row r="103">
@@ -5439,40 +5427,40 @@
         <v>15</v>
       </c>
       <c r="C103" t="n">
-        <v>0.202381782199781</v>
+        <v>-0.115688600248506</v>
       </c>
       <c r="D103" t="n">
-        <v>1.15059633681923</v>
+        <v>0.922941684297049</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0428875378476698</v>
+        <v>0.0232083519409907</v>
       </c>
       <c r="F103" t="n">
-        <v>4.71889486681683</v>
+        <v>-4.98478308768562</v>
       </c>
       <c r="G103" t="n">
-        <v>0.00000409058074502573</v>
+        <v>0.00000227992893277135</v>
       </c>
       <c r="H103" t="n">
-        <v>233.000000050943</v>
+        <v>111.999999997847</v>
       </c>
       <c r="I103" t="n">
-        <v>0.10696474787633</v>
+        <v>0.0156616332869833</v>
       </c>
       <c r="J103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0.759787606479502</v>
+        <v>0.86836735420206</v>
       </c>
       <c r="L103" t="n">
-        <v>0.777651498742008</v>
+        <v>0.86836735420206</v>
       </c>
       <c r="M103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N103" t="n">
-        <v>0.000756757437829761</v>
+        <v>0.000412667136831615</v>
       </c>
     </row>
     <row r="104">
@@ -5483,40 +5471,40 @@
         <v>15</v>
       </c>
       <c r="C104" t="n">
-        <v>0.163362086143663</v>
+        <v>0.206910160427594</v>
       </c>
       <c r="D104" t="n">
-        <v>1.11989392323119</v>
+        <v>1.15421354003986</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0344861675889761</v>
+        <v>0.0416357156748743</v>
       </c>
       <c r="F104" t="n">
-        <v>4.73703219478304</v>
+        <v>4.96953533940231</v>
       </c>
       <c r="G104" t="n">
-        <v>0.00000496040120544049</v>
+        <v>0.000002482074600119</v>
       </c>
       <c r="H104" t="n">
-        <v>151.00000015325</v>
+        <v>110.000000002703</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0461080815774902</v>
+        <v>0.0504058004514531</v>
       </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.91403891295155</v>
+        <v>0.870658825317851</v>
       </c>
       <c r="L104" t="n">
-        <v>0.91975978892226</v>
+        <v>0.879984455633738</v>
       </c>
       <c r="M104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N104" t="n">
-        <v>0.00091767422300649</v>
+        <v>0.00044925550262154</v>
       </c>
     </row>
     <row r="105">
@@ -5527,40 +5515,40 @@
         <v>15</v>
       </c>
       <c r="C105" t="n">
-        <v>0.106676446697561</v>
+        <v>0.206910160427594</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07674486747714</v>
+        <v>1.15421354003986</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0222824691847862</v>
+        <v>0.0416357156748743</v>
       </c>
       <c r="F105" t="n">
-        <v>4.7874607527965</v>
+        <v>4.96953533940231</v>
       </c>
       <c r="G105" t="n">
-        <v>0.00000529840456044724</v>
+        <v>0.000002482074600119</v>
       </c>
       <c r="H105" t="n">
-        <v>109.999999987651</v>
+        <v>110.000000002703</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0144369375125398</v>
+        <v>0.0504058004514531</v>
       </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.957552539728513</v>
+        <v>0.870658825317851</v>
       </c>
       <c r="L105" t="n">
-        <v>0.957977870556071</v>
+        <v>0.879984455633738</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="n">
-        <v>0.000980204843682739</v>
+        <v>0.00044925550262154</v>
       </c>
     </row>
     <row r="106">
@@ -5571,40 +5559,40 @@
         <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>0.167230544373275</v>
+        <v>0.152178844693042</v>
       </c>
       <c r="D106" t="n">
-        <v>1.12290084862019</v>
+        <v>1.1112464765584</v>
       </c>
       <c r="E106" t="n">
-        <v>0.03634586684608</v>
+        <v>0.0313287595833262</v>
       </c>
       <c r="F106" t="n">
-        <v>4.60108834606903</v>
+        <v>4.8574806892142</v>
       </c>
       <c r="G106" t="n">
-        <v>0.00000884087603232949</v>
+        <v>0.00000389123255501039</v>
       </c>
       <c r="H106" t="n">
-        <v>151.000000008133</v>
+        <v>111.999999996814</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0512150081956661</v>
+        <v>0.0285387434551758</v>
       </c>
       <c r="J106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>0.889478277363581</v>
+        <v>0.96402881317747</v>
       </c>
       <c r="L106" t="n">
-        <v>0.898015267758314</v>
+        <v>0.96402881317747</v>
       </c>
       <c r="M106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N106" t="n">
-        <v>0.00163556206598096</v>
+        <v>0.000704313092456881</v>
       </c>
     </row>
     <row r="107">
@@ -5615,40 +5603,40 @@
         <v>15</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.214003641885989</v>
+        <v>0.14441294682174</v>
       </c>
       <c r="D107" t="n">
-        <v>0.862141368657073</v>
+        <v>1.10528080728544</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0463103374195108</v>
+        <v>0.0302860213222977</v>
       </c>
       <c r="F107" t="n">
-        <v>-4.62107714628372</v>
+        <v>4.76830367663441</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0000104419543482966</v>
+        <v>0.00000427108826109544</v>
       </c>
       <c r="H107" t="n">
-        <v>109.999999998688</v>
+        <v>153.999999997938</v>
       </c>
       <c r="I107" t="n">
-        <v>0.062359746078583</v>
+        <v>0.0355608089321133</v>
       </c>
       <c r="J107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>0.932298928992315</v>
+        <v>0.82257853490914</v>
       </c>
       <c r="L107" t="n">
-        <v>0.940164634651781</v>
+        <v>0.82257853490914</v>
       </c>
       <c r="M107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N107" t="n">
-        <v>0.00193176155443486</v>
+        <v>0.000773066975258275</v>
       </c>
     </row>
     <row r="108">
@@ -5659,40 +5647,40 @@
         <v>15</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.104560549026652</v>
+        <v>0.106676446697561</v>
       </c>
       <c r="D108" t="n">
-        <v>0.930088208246571</v>
+        <v>1.07674486747714</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0234192949505547</v>
+        <v>0.0222824691847862</v>
       </c>
       <c r="F108" t="n">
-        <v>-4.46471805609058</v>
+        <v>4.7874607527965</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0000124957430320563</v>
+        <v>0.00000529840456044724</v>
       </c>
       <c r="H108" t="n">
-        <v>233.00000000224</v>
+        <v>109.999999987651</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0318952547878225</v>
+        <v>0.0144369375125398</v>
       </c>
       <c r="J108" t="b">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.938626016663598</v>
+        <v>0.957552539728513</v>
       </c>
       <c r="L108" t="n">
-        <v>0.939967318081025</v>
+        <v>0.957977870556071</v>
       </c>
       <c r="M108" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N108" t="n">
-        <v>0.00231171246093042</v>
+        <v>0.00095901122544095</v>
       </c>
     </row>
     <row r="109">
@@ -5703,40 +5691,40 @@
         <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>0.175604826832564</v>
+        <v>-0.113129152234469</v>
       </c>
       <c r="D109" t="n">
-        <v>1.12943780431056</v>
+        <v>0.924580504568466</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0393980130205357</v>
+        <v>0.0241272347921383</v>
       </c>
       <c r="F109" t="n">
-        <v>4.4572000811572</v>
+        <v>-4.68885693736156</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0000200834255093161</v>
+        <v>0.00000793414271389445</v>
       </c>
       <c r="H109" t="n">
-        <v>110.000000267111</v>
+        <v>109.999999991192</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0451332997328664</v>
+        <v>0.0169263590303275</v>
       </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.932968503890263</v>
+        <v>0.884469856634581</v>
       </c>
       <c r="L109" t="n">
-        <v>0.943371542937332</v>
+        <v>0.885264463323424</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="n">
-        <v>0.00371543371922348</v>
+        <v>0.00143607983121489</v>
       </c>
     </row>
     <row r="110">
@@ -5747,40 +5735,40 @@
         <v>15</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0892915693415457</v>
+        <v>-0.214003641885989</v>
       </c>
       <c r="D110" t="n">
-        <v>1.06384765527641</v>
+        <v>0.862141368657073</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0203009083435134</v>
+        <v>0.0463103374195108</v>
       </c>
       <c r="F110" t="n">
-        <v>4.39840266408949</v>
+        <v>-4.62107714628372</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0000202529218552725</v>
+        <v>0.0000104419543482966</v>
       </c>
       <c r="H110" t="n">
-        <v>153.999999994374</v>
+        <v>109.999999998688</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0159778421003194</v>
+        <v>0.062359746078583</v>
       </c>
       <c r="J110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.828087649598802</v>
+        <v>0.932298928992315</v>
       </c>
       <c r="L110" t="n">
-        <v>0.828087649598802</v>
+        <v>0.940164634651781</v>
       </c>
       <c r="M110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N110" t="n">
-        <v>0.00374679054322542</v>
+        <v>0.00188999373704168</v>
       </c>
     </row>
     <row r="111">
@@ -5791,40 +5779,40 @@
         <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>0.173243239562871</v>
+        <v>0.163457046854741</v>
       </c>
       <c r="D111" t="n">
-        <v>1.127590508801</v>
+        <v>1.1199676390341</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0399582044934366</v>
+        <v>0.0371598792045801</v>
       </c>
       <c r="F111" t="n">
-        <v>4.33561121574739</v>
+        <v>4.39875075897971</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0000299274416918555</v>
+        <v>0.0000195271207903788</v>
       </c>
       <c r="H111" t="n">
-        <v>123.000088852258</v>
+        <v>163.986789311087</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0515843388201926</v>
+        <v>0.0579959781449573</v>
       </c>
       <c r="J111" t="b">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.757703640130358</v>
+        <v>0.735030370881262</v>
       </c>
       <c r="L111" t="n">
-        <v>0.934847839158055</v>
+        <v>0.890743285567737</v>
       </c>
       <c r="M111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N111" t="n">
-        <v>0.00553657671299327</v>
+        <v>0.00353440886305857</v>
       </c>
     </row>
     <row r="112">
@@ -5835,40 +5823,40 @@
         <v>15</v>
       </c>
       <c r="C112" t="n">
-        <v>0.190911369748983</v>
+        <v>-0.053335788621085</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14148457922752</v>
+        <v>0.963705478283141</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0447922155694124</v>
+        <v>0.0125464698366565</v>
       </c>
       <c r="F112" t="n">
-        <v>4.26215509373804</v>
+        <v>-4.25105940678676</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0000300935524907579</v>
+        <v>0.0000264236467289847</v>
       </c>
       <c r="H112" t="n">
-        <v>218.898243062105</v>
+        <v>405.999999990326</v>
       </c>
       <c r="I112" t="n">
-        <v>0.110194507614641</v>
+        <v>0.0152570400581759</v>
       </c>
       <c r="J112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>0.695240049647812</v>
+        <v>0.911463074401482</v>
       </c>
       <c r="L112" t="n">
-        <v>0.817334986615405</v>
+        <v>0.911463074401482</v>
       </c>
       <c r="M112" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0055673072107902</v>
+        <v>0.00478268005794624</v>
       </c>
     </row>
     <row r="113">
@@ -5879,40 +5867,40 @@
         <v>15</v>
       </c>
       <c r="C113" t="n">
-        <v>0.178345360210627</v>
+        <v>0.173243239562871</v>
       </c>
       <c r="D113" t="n">
-        <v>1.13158531549258</v>
+        <v>1.127590508801</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0410049269571842</v>
+        <v>0.0399582044934366</v>
       </c>
       <c r="F113" t="n">
-        <v>4.34936417267242</v>
+        <v>4.33561121574739</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0000340303946676551</v>
+        <v>0.0000299274416918555</v>
       </c>
       <c r="H113" t="n">
-        <v>95.9946947713447</v>
+        <v>123.000088852258</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0434578273600544</v>
+        <v>0.0515843388201926</v>
       </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>0.669592948995651</v>
+        <v>0.757703640130358</v>
       </c>
       <c r="L113" t="n">
-        <v>0.911929709064675</v>
+        <v>0.934847839158055</v>
       </c>
       <c r="M113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N113" t="n">
-        <v>0.00629562301351619</v>
+        <v>0.00541686694622585</v>
       </c>
     </row>
     <row r="114">
@@ -5956,7 +5944,7 @@
         <v>3</v>
       </c>
       <c r="N114" t="n">
-        <v>0.00629562301351619</v>
+        <v>0.00615950143484557</v>
       </c>
     </row>
     <row r="115">
@@ -6000,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="N115" t="n">
-        <v>0.00629562301351619</v>
+        <v>0.00615950143484557</v>
       </c>
     </row>
     <row r="116">
@@ -6044,7 +6032,7 @@
         <v>3</v>
       </c>
       <c r="N116" t="n">
-        <v>0.00629562301351619</v>
+        <v>0.00615950143484557</v>
       </c>
     </row>
     <row r="117">
@@ -6055,40 +6043,40 @@
         <v>15</v>
       </c>
       <c r="C117" t="n">
-        <v>0.168525938222847</v>
+        <v>-0.185460409355249</v>
       </c>
       <c r="D117" t="n">
-        <v>1.12390955250311</v>
+        <v>0.879368397029542</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0403577128497168</v>
+        <v>0.0437786932491521</v>
       </c>
       <c r="F117" t="n">
-        <v>4.17580497810667</v>
+        <v>-4.23631670090658</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0000439047767689168</v>
+        <v>0.0000473850548986225</v>
       </c>
       <c r="H117" t="n">
-        <v>204.958428218119</v>
+        <v>109.999999999146</v>
       </c>
       <c r="I117" t="n">
-        <v>0.084193586992404</v>
+        <v>0.0557280742633898</v>
       </c>
       <c r="J117" t="b">
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.47492551031704</v>
+        <v>0.889544530630418</v>
       </c>
       <c r="L117" t="n">
-        <v>0.733545517036373</v>
+        <v>0.89380014711032</v>
       </c>
       <c r="M117" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>0.00812238370224961</v>
+        <v>0.00857669493665068</v>
       </c>
     </row>
     <row r="118">
@@ -6132,7 +6120,7 @@
         <v>6</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0139389590848997</v>
+        <v>0.0136375761857667</v>
       </c>
     </row>
     <row r="119">
@@ -6176,7 +6164,7 @@
         <v>4</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0171034776268113</v>
+        <v>0.0167336727051506</v>
       </c>
     </row>
     <row r="120">
@@ -6187,40 +6175,40 @@
         <v>15</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.211981641287321</v>
+        <v>0.148437872764361</v>
       </c>
       <c r="D120" t="n">
-        <v>0.863350544890506</v>
+        <v>1.10836869810457</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0525974082572011</v>
+        <v>0.0369470966084142</v>
       </c>
       <c r="F120" t="n">
-        <v>-4.03026780807777</v>
+        <v>4.01757881918538</v>
       </c>
       <c r="G120" t="n">
-        <v>0.000102926996597526</v>
+        <v>0.0000924512304151965</v>
       </c>
       <c r="H120" t="n">
-        <v>110.00000000369</v>
+        <v>150.999999999574</v>
       </c>
       <c r="I120" t="n">
-        <v>0.08044094002551</v>
+        <v>0.0529234096682239</v>
       </c>
       <c r="J120" t="b">
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>0.91372353013984</v>
+        <v>0.906875882093847</v>
       </c>
       <c r="L120" t="n">
-        <v>0.932670395640033</v>
+        <v>0.913111004519777</v>
       </c>
       <c r="M120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0190414943705424</v>
+        <v>0.0167336727051506</v>
       </c>
     </row>
     <row r="121">
@@ -6231,40 +6219,40 @@
         <v>15</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0532460774867788</v>
+        <v>-0.211981641287321</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03759690221428</v>
+        <v>0.863350544890506</v>
       </c>
       <c r="E121" t="n">
-        <v>0.013847550644908</v>
+        <v>0.0525974082572011</v>
       </c>
       <c r="F121" t="n">
-        <v>3.84516214110098</v>
+        <v>-4.03026780807777</v>
       </c>
       <c r="G121" t="n">
-        <v>0.000149179819506213</v>
+        <v>0.000102926996597526</v>
       </c>
       <c r="H121" t="n">
-        <v>279.999999993546</v>
+        <v>110.00000000369</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0130098160859557</v>
+        <v>0.08044094002551</v>
       </c>
       <c r="J121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>0.934291155908087</v>
+        <v>0.91372353013984</v>
       </c>
       <c r="L121" t="n">
-        <v>0.934291155908087</v>
+        <v>0.932670395640033</v>
       </c>
       <c r="M121" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0275982666086495</v>
+        <v>0.0186297863841523</v>
       </c>
     </row>
     <row r="122">
@@ -6275,40 +6263,40 @@
         <v>15</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.196851970591245</v>
+        <v>-0.114135014334141</v>
       </c>
       <c r="D122" t="n">
-        <v>0.872452220156795</v>
+        <v>0.923936102020746</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0509593449141417</v>
+        <v>0.0292710464395169</v>
       </c>
       <c r="F122" t="n">
-        <v>-3.86292192183609</v>
+        <v>-3.89924612261403</v>
       </c>
       <c r="G122" t="n">
-        <v>0.000189708430150493</v>
+        <v>0.000126231959208843</v>
       </c>
       <c r="H122" t="n">
-        <v>110.000000017284</v>
+        <v>232.999999561479</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0755085482524353</v>
+        <v>0.0498258757466347</v>
       </c>
       <c r="J122" t="b">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.784169460879659</v>
+        <v>0.755585551154101</v>
       </c>
       <c r="L122" t="n">
-        <v>0.789313797286656</v>
+        <v>0.755719839751885</v>
       </c>
       <c r="M122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0350960595778411</v>
+        <v>0.0228479846168006</v>
       </c>
     </row>
     <row r="123">
@@ -6319,40 +6307,40 @@
         <v>15</v>
       </c>
       <c r="C123" t="n">
-        <v>0.117839769003452</v>
+        <v>0.188103005624449</v>
       </c>
       <c r="D123" t="n">
-        <v>1.08510884902501</v>
+        <v>1.13926471560681</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0317056456202544</v>
+        <v>0.0484575043518275</v>
       </c>
       <c r="F123" t="n">
-        <v>3.7166809474516</v>
+        <v>3.88181372814251</v>
       </c>
       <c r="G123" t="n">
-        <v>0.000283775064176461</v>
+        <v>0.000177205662877625</v>
       </c>
       <c r="H123" t="n">
-        <v>151.000000020934</v>
+        <v>110.000000098212</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0389726903042591</v>
+        <v>0.0682763874759068</v>
       </c>
       <c r="J123" t="b">
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.945101365185975</v>
+        <v>0.775217730064842</v>
       </c>
       <c r="L123" t="n">
-        <v>0.948863785186503</v>
+        <v>0.787708283797042</v>
       </c>
       <c r="M123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0524983868726453</v>
+        <v>0.0320742249808501</v>
       </c>
     </row>
     <row r="124">
@@ -6363,40 +6351,40 @@
         <v>15</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160980876491196</v>
+        <v>0.148056934501163</v>
       </c>
       <c r="D124" t="n">
-        <v>1.11804703070008</v>
+        <v>1.10807607610411</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0429743194812593</v>
+        <v>0.0388397353993754</v>
       </c>
       <c r="F124" t="n">
-        <v>3.74597849214107</v>
+        <v>3.81199647677167</v>
       </c>
       <c r="G124" t="n">
-        <v>0.000287897493899726</v>
+        <v>0.000225854416877735</v>
       </c>
       <c r="H124" t="n">
-        <v>110.000000001314</v>
+        <v>111.999999996787</v>
       </c>
       <c r="I124" t="n">
-        <v>0.053699032844895</v>
+        <v>0.043863266719057</v>
       </c>
       <c r="J124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>0.851584371446703</v>
+        <v>0.703353678803265</v>
       </c>
       <c r="L124" t="n">
-        <v>0.853710641051441</v>
+        <v>0.703353678803265</v>
       </c>
       <c r="M124" t="n">
         <v>3</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0532610363714493</v>
+        <v>0.0408796494548701</v>
       </c>
     </row>
     <row r="125">
@@ -6407,40 +6395,40 @@
         <v>15</v>
       </c>
       <c r="C125" t="n">
-        <v>0.156070007106822</v>
+        <v>-0.0824960089203427</v>
       </c>
       <c r="D125" t="n">
-        <v>1.11424771863288</v>
+        <v>0.944422286006566</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0420053140142774</v>
+        <v>0.0221637600672086</v>
       </c>
       <c r="F125" t="n">
-        <v>3.71548245190535</v>
+        <v>-3.72211252378588</v>
       </c>
       <c r="G125" t="n">
-        <v>0.000320529198183346</v>
+        <v>0.000233945622653956</v>
       </c>
       <c r="H125" t="n">
-        <v>110.000000000822</v>
+        <v>315.000000015826</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0513046724042756</v>
+        <v>0.0380893937230252</v>
       </c>
       <c r="J125" t="b">
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0.92731578088985</v>
+        <v>0.92922976645478</v>
       </c>
       <c r="L125" t="n">
-        <v>0.930546445912098</v>
+        <v>0.930835792841117</v>
       </c>
       <c r="M125" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N125" t="n">
-        <v>0.059297901663919</v>
+        <v>0.0423441577003661</v>
       </c>
     </row>
     <row r="126">
@@ -6451,40 +6439,40 @@
         <v>15</v>
       </c>
       <c r="C126" t="n">
-        <v>0.156070007106822</v>
+        <v>0.160980876491196</v>
       </c>
       <c r="D126" t="n">
-        <v>1.11424771863288</v>
+        <v>1.11804703070008</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0420053140142774</v>
+        <v>0.0429743194812593</v>
       </c>
       <c r="F126" t="n">
-        <v>3.71548245190535</v>
+        <v>3.74597849214107</v>
       </c>
       <c r="G126" t="n">
-        <v>0.000320529198183346</v>
+        <v>0.000287897493899726</v>
       </c>
       <c r="H126" t="n">
-        <v>110.000000000822</v>
+        <v>110.000000001314</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0513046724042756</v>
+        <v>0.053699032844895</v>
       </c>
       <c r="J126" t="b">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>0.92731578088985</v>
+        <v>0.851584371446703</v>
       </c>
       <c r="L126" t="n">
-        <v>0.930546445912098</v>
+        <v>0.853710641051441</v>
       </c>
       <c r="M126" t="n">
         <v>3</v>
       </c>
       <c r="N126" t="n">
-        <v>0.059297901663919</v>
+        <v>0.0521094463958504</v>
       </c>
     </row>
     <row r="127">
@@ -6495,40 +6483,40 @@
         <v>15</v>
       </c>
       <c r="C127" t="n">
-        <v>0.092724378855597</v>
+        <v>0.122794732206207</v>
       </c>
       <c r="D127" t="n">
-        <v>1.06638203332745</v>
+        <v>1.08884208299991</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0252832753347261</v>
+        <v>0.0331687441246983</v>
       </c>
       <c r="F127" t="n">
-        <v>3.66741957392846</v>
+        <v>3.70212184533002</v>
       </c>
       <c r="G127" t="n">
-        <v>0.00033689872678006</v>
+        <v>0.000335904806290735</v>
       </c>
       <c r="H127" t="n">
-        <v>153.999999994657</v>
+        <v>110.00000000049</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0247829986055685</v>
+        <v>0.0319894301395439</v>
       </c>
       <c r="J127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.906745861926339</v>
+        <v>0.920188381633594</v>
       </c>
       <c r="L127" t="n">
-        <v>0.906745861926339</v>
+        <v>0.925079680285381</v>
       </c>
       <c r="M127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0623262644543111</v>
+        <v>0.060798769938623</v>
       </c>
     </row>
     <row r="128">
@@ -6539,40 +6527,40 @@
         <v>15</v>
       </c>
       <c r="C128" t="n">
-        <v>0.195366923972137</v>
+        <v>0.173551196237601</v>
       </c>
       <c r="D128" t="n">
-        <v>1.14501533797285</v>
+        <v>1.12783122917371</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0545309400327404</v>
+        <v>0.0480848166029852</v>
       </c>
       <c r="F128" t="n">
-        <v>3.58268028856348</v>
+        <v>3.60927229213611</v>
       </c>
       <c r="G128" t="n">
-        <v>0.000508082625643197</v>
+        <v>0.000391706242636262</v>
       </c>
       <c r="H128" t="n">
-        <v>110.000000026097</v>
+        <v>192.000000013036</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0864638194679183</v>
+        <v>0.112050326175224</v>
       </c>
       <c r="J128" t="b">
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0.881289306708738</v>
+        <v>0.798723378855607</v>
       </c>
       <c r="L128" t="n">
-        <v>0.891441964678267</v>
+        <v>0.818898676678403</v>
       </c>
       <c r="M128" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0939952857439915</v>
+        <v>0.0708988299171635</v>
       </c>
     </row>
     <row r="129">
@@ -6583,40 +6571,40 @@
         <v>15</v>
       </c>
       <c r="C129" t="n">
-        <v>0.119298807532537</v>
+        <v>0.176324056818387</v>
       </c>
       <c r="D129" t="n">
-        <v>1.08620680557129</v>
+        <v>1.13000100584092</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0338534100221232</v>
+        <v>0.0489008738772379</v>
       </c>
       <c r="F129" t="n">
-        <v>3.52398199928975</v>
+        <v>3.60574449571261</v>
       </c>
       <c r="G129" t="n">
-        <v>0.000620571195501304</v>
+        <v>0.000469397004290063</v>
       </c>
       <c r="H129" t="n">
-        <v>109.999999996801</v>
+        <v>110.000000000363</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0333237056852019</v>
+        <v>0.0695315143178419</v>
       </c>
       <c r="J129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.94223923877636</v>
+        <v>0.798914452011646</v>
       </c>
       <c r="L129" t="n">
-        <v>0.944315006208607</v>
+        <v>0.818704340783207</v>
       </c>
       <c r="M129" t="n">
         <v>3</v>
       </c>
       <c r="N129" t="n">
-        <v>0.114805671167741</v>
+        <v>0.0849608577765014</v>
       </c>
     </row>
     <row r="130">
@@ -6627,40 +6615,40 @@
         <v>15</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.078916236068437</v>
+        <v>0.195366923972137</v>
       </c>
       <c r="D130" t="n">
-        <v>0.94676859971982</v>
+        <v>1.14501533797285</v>
       </c>
       <c r="E130" t="n">
-        <v>0.022909729408755</v>
+        <v>0.0545309400327404</v>
       </c>
       <c r="F130" t="n">
-        <v>-3.44466033013375</v>
+        <v>3.58268028856348</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00067795708905372</v>
+        <v>0.000508082625643197</v>
       </c>
       <c r="H130" t="n">
-        <v>233.000000143338</v>
+        <v>110.000000026097</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0305223777227904</v>
+        <v>0.0864638194679183</v>
       </c>
       <c r="J130" t="b">
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0.948379969731558</v>
+        <v>0.881289306708738</v>
       </c>
       <c r="L130" t="n">
-        <v>0.94848654111693</v>
+        <v>0.891441964678267</v>
       </c>
       <c r="M130" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N130" t="n">
-        <v>0.125422061474938</v>
+        <v>0.0919629552414187</v>
       </c>
     </row>
     <row r="131">
@@ -6671,40 +6659,40 @@
         <v>15</v>
       </c>
       <c r="C131" t="n">
-        <v>0.16854095478995</v>
+        <v>0.119298807532537</v>
       </c>
       <c r="D131" t="n">
-        <v>1.1239212509914</v>
+        <v>1.08620680557129</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0487517136658788</v>
+        <v>0.0338534100221232</v>
       </c>
       <c r="F131" t="n">
-        <v>3.45712882925613</v>
+        <v>3.52398199928975</v>
       </c>
       <c r="G131" t="n">
-        <v>0.000709372121489717</v>
+        <v>0.000620571195501304</v>
       </c>
       <c r="H131" t="n">
-        <v>151.000000018299</v>
+        <v>109.999999996801</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0921439777708734</v>
+        <v>0.0333237056852019</v>
       </c>
       <c r="J131" t="b">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.768969951844301</v>
+        <v>0.94223923877636</v>
       </c>
       <c r="L131" t="n">
-        <v>0.789680490079952</v>
+        <v>0.944315006208607</v>
       </c>
       <c r="M131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N131" t="n">
-        <v>0.131233842475598</v>
+        <v>0.112323386385736</v>
       </c>
     </row>
     <row r="132">
@@ -6715,40 +6703,40 @@
         <v>15</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.0694884523785248</v>
+        <v>0.141710445375264</v>
       </c>
       <c r="D132" t="n">
-        <v>0.952975842213908</v>
+        <v>1.10321229873058</v>
       </c>
       <c r="E132" t="n">
-        <v>0.020929443455835</v>
+        <v>0.0404569948620674</v>
       </c>
       <c r="F132" t="n">
-        <v>-3.32012900988782</v>
+        <v>3.5027427484025</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00121494067073111</v>
+        <v>0.000666775338773347</v>
       </c>
       <c r="H132" t="n">
-        <v>112.000000000039</v>
+        <v>109.99999962741</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0127369020057105</v>
+        <v>0.0475921898289087</v>
       </c>
       <c r="J132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.840568569869647</v>
+        <v>0.85049866885649</v>
       </c>
       <c r="L132" t="n">
-        <v>0.840568569869647</v>
+        <v>0.862508480530484</v>
       </c>
       <c r="M132" t="n">
         <v>3</v>
       </c>
       <c r="N132" t="n">
-        <v>0.224764024085256</v>
+        <v>0.120686336317976</v>
       </c>
     </row>
     <row r="133">
@@ -6759,40 +6747,40 @@
         <v>15</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.0624690584697604</v>
+        <v>0.220309319538507</v>
       </c>
       <c r="D133" t="n">
-        <v>0.95762381866936</v>
+        <v>1.16498333674151</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0198459878420329</v>
+        <v>0.0638402601975408</v>
       </c>
       <c r="F133" t="n">
-        <v>-3.14769206587206</v>
+        <v>3.45094645380211</v>
       </c>
       <c r="G133" t="n">
-        <v>0.00198332403526037</v>
+        <v>0.000724594218700826</v>
       </c>
       <c r="H133" t="n">
-        <v>150.999999368359</v>
+        <v>150.999999999881</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0152697745882126</v>
+        <v>0.158007055871786</v>
       </c>
       <c r="J133" t="b">
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>0.917014272453753</v>
+        <v>0.78944094803932</v>
       </c>
       <c r="L133" t="n">
-        <v>0.917279952733427</v>
+        <v>0.803982518618096</v>
       </c>
       <c r="M133" t="n">
         <v>4</v>
       </c>
       <c r="N133" t="n">
-        <v>0.366914946523168</v>
+        <v>0.13115155358485</v>
       </c>
     </row>
     <row r="134">
@@ -6803,40 +6791,40 @@
         <v>15</v>
       </c>
       <c r="C134" t="n">
-        <v>0.226085533292302</v>
+        <v>0.151398698160165</v>
       </c>
       <c r="D134" t="n">
-        <v>1.16965700763896</v>
+        <v>1.11064572539256</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0728392736268143</v>
+        <v>0.0455948977122692</v>
       </c>
       <c r="F134" t="n">
-        <v>3.10389604446953</v>
+        <v>3.32051842983793</v>
       </c>
       <c r="G134" t="n">
-        <v>0.00228081667737922</v>
+        <v>0.00107534422873832</v>
       </c>
       <c r="H134" t="n">
-        <v>151.000000026476</v>
+        <v>191.999999993632</v>
       </c>
       <c r="I134" t="n">
-        <v>0.205692471566992</v>
+        <v>0.100746435335165</v>
       </c>
       <c r="J134" t="b">
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.75073242484352</v>
+        <v>0.887620490374659</v>
       </c>
       <c r="L134" t="n">
-        <v>0.78001341783708</v>
+        <v>0.889629419644867</v>
       </c>
       <c r="M134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N134" t="n">
-        <v>0.421951085315155</v>
+        <v>0.194637305401636</v>
       </c>
     </row>
     <row r="135">
@@ -6847,40 +6835,40 @@
         <v>15</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.159143669790171</v>
+        <v>0.0662935166433835</v>
       </c>
       <c r="D135" t="n">
-        <v>0.895556482275726</v>
+        <v>1.04702327743745</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0515607438598585</v>
+        <v>0.0202899140381654</v>
       </c>
       <c r="F135" t="n">
-        <v>-3.08652780927138</v>
+        <v>3.26731382492233</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00264682554194877</v>
+        <v>0.00122411023964398</v>
       </c>
       <c r="H135" t="n">
-        <v>95.9903537208209</v>
+        <v>274.000000010653</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0687122664061792</v>
+        <v>0.0279309461152581</v>
       </c>
       <c r="J135" t="b">
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0.607413005728693</v>
+        <v>0.948751667429451</v>
       </c>
       <c r="L135" t="n">
-        <v>0.850393219293933</v>
+        <v>0.950666787965766</v>
       </c>
       <c r="M135" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N135" t="n">
-        <v>0.489662725260523</v>
+        <v>0.221563953375561</v>
       </c>
     </row>
     <row r="136">
@@ -6891,40 +6879,40 @@
         <v>15</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.0486383964043881</v>
+        <v>-0.0727503624635037</v>
       </c>
       <c r="D136" t="n">
-        <v>0.966848401944147</v>
+        <v>0.950823613287427</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0161578242223861</v>
+        <v>0.0233064854990209</v>
       </c>
       <c r="F136" t="n">
-        <v>-3.0102070510831</v>
+        <v>-3.12146430085136</v>
       </c>
       <c r="G136" t="n">
-        <v>0.00284867007793646</v>
+        <v>0.00202699484079171</v>
       </c>
       <c r="H136" t="n">
-        <v>279.999999991707</v>
+        <v>232.999999999422</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0177129538566575</v>
+        <v>0.031588719487304</v>
       </c>
       <c r="J136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0.898680585303479</v>
+        <v>0.805637904244215</v>
       </c>
       <c r="L136" t="n">
-        <v>0.898680585303479</v>
+        <v>0.809005663138155</v>
       </c>
       <c r="M136" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N136" t="n">
-        <v>0.527003964418245</v>
+        <v>0.366886066183299</v>
       </c>
     </row>
     <row r="137">
@@ -6935,40 +6923,40 @@
         <v>15</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.0793281115524835</v>
+        <v>-0.211720764612856</v>
       </c>
       <c r="D137" t="n">
-        <v>0.946498345018759</v>
+        <v>0.86350667517267</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0275993727766876</v>
+        <v>0.067075012518764</v>
       </c>
       <c r="F137" t="n">
-        <v>-2.87427225953083</v>
+        <v>-3.15647745207096</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00417125100729702</v>
+        <v>0.00206065191652263</v>
       </c>
       <c r="H137" t="n">
-        <v>706.688989170239</v>
+        <v>110.000000041925</v>
       </c>
       <c r="I137" t="n">
-        <v>0.129873087041263</v>
+        <v>0.130818743158485</v>
       </c>
       <c r="J137" t="b">
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.809170899772298</v>
+        <v>0.869215977385695</v>
       </c>
       <c r="L137" t="n">
-        <v>0.889585792367212</v>
+        <v>0.91342763762491</v>
       </c>
       <c r="M137" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N137" t="n">
-        <v>0.771681436349949</v>
+        <v>0.372977996890597</v>
       </c>
     </row>
     <row r="138">
@@ -6979,40 +6967,40 @@
         <v>15</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.144532865364838</v>
+        <v>-0.116109650617991</v>
       </c>
       <c r="D138" t="n">
-        <v>0.904672256736465</v>
+        <v>0.922672363183065</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0501674185506779</v>
+        <v>0.0375147118840802</v>
       </c>
       <c r="F138" t="n">
-        <v>-2.8810106148642</v>
+        <v>-3.09504311206674</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00433382339091589</v>
+        <v>0.00233804843736076</v>
       </c>
       <c r="H138" t="n">
-        <v>233.000000035168</v>
+        <v>153.999999999419</v>
       </c>
       <c r="I138" t="n">
-        <v>0.146359848641032</v>
+        <v>0.0545620167925966</v>
       </c>
       <c r="J138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>0.65111039787973</v>
+        <v>0.519251751164401</v>
       </c>
       <c r="L138" t="n">
-        <v>0.665496364727926</v>
+        <v>0.519251751164401</v>
       </c>
       <c r="M138" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N138" t="n">
-        <v>0.80175732731944</v>
+        <v>0.423186767162298</v>
       </c>
     </row>
     <row r="139">
@@ -7023,40 +7011,40 @@
         <v>15</v>
       </c>
       <c r="C139" t="n">
-        <v>0.126263357331012</v>
+        <v>-0.159143669790171</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09146310042967</v>
+        <v>0.895556482275726</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0437058805109564</v>
+        <v>0.0515607438598585</v>
       </c>
       <c r="F139" t="n">
-        <v>2.88893292744348</v>
+        <v>-3.08652780927138</v>
       </c>
       <c r="G139" t="n">
-        <v>0.00464910358297911</v>
+        <v>0.00264682554194877</v>
       </c>
       <c r="H139" t="n">
-        <v>111.000000000195</v>
+        <v>95.9903537208209</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0549266897258672</v>
+        <v>0.0687122664061792</v>
       </c>
       <c r="J139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0.769190994961532</v>
+        <v>0.607413005728693</v>
       </c>
       <c r="L139" t="n">
-        <v>0.769190994961532</v>
+        <v>0.850393219293933</v>
       </c>
       <c r="M139" t="n">
         <v>3</v>
       </c>
       <c r="N139" t="n">
-        <v>0.860084162851135</v>
+        <v>0.479075423092728</v>
       </c>
     </row>
     <row r="140">
@@ -7067,40 +7055,40 @@
         <v>15</v>
       </c>
       <c r="C140" t="n">
-        <v>0.164297102173253</v>
+        <v>-0.088980059929175</v>
       </c>
       <c r="D140" t="n">
-        <v>1.12061996590416</v>
+        <v>0.940187197126291</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0574086212219809</v>
+        <v>0.0293192801609455</v>
       </c>
       <c r="F140" t="n">
-        <v>2.86188901032771</v>
+        <v>-3.03486509357416</v>
       </c>
       <c r="G140" t="n">
-        <v>0.00495099404406523</v>
+        <v>0.00300369481104824</v>
       </c>
       <c r="H140" t="n">
-        <v>123.000204561548</v>
+        <v>110.000297291215</v>
       </c>
       <c r="I140" t="n">
-        <v>0.106478070158133</v>
+        <v>0.0249951101154595</v>
       </c>
       <c r="J140" t="b">
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0.696665267103392</v>
+        <v>0.805774283693324</v>
       </c>
       <c r="L140" t="n">
-        <v>0.869905741846476</v>
+        <v>0.806029135974788</v>
       </c>
       <c r="M140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N140" t="n">
-        <v>0.915933898152068</v>
+        <v>0.543668760799731</v>
       </c>
     </row>
     <row r="141">
@@ -7111,40 +7099,40 @@
         <v>15</v>
       </c>
       <c r="C141" t="n">
-        <v>0.164297102173253</v>
+        <v>0.155680260738217</v>
       </c>
       <c r="D141" t="n">
-        <v>1.12061996590416</v>
+        <v>1.11394674348905</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0574086212219809</v>
+        <v>0.051629470210781</v>
       </c>
       <c r="F141" t="n">
-        <v>2.86188901032771</v>
+        <v>3.01533717279379</v>
       </c>
       <c r="G141" t="n">
-        <v>0.00495099404406523</v>
+        <v>0.00311898945137274</v>
       </c>
       <c r="H141" t="n">
-        <v>123.000204561548</v>
+        <v>122.998665176839</v>
       </c>
       <c r="I141" t="n">
-        <v>0.106478070158133</v>
+        <v>0.0861194555064067</v>
       </c>
       <c r="J141" t="b">
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.696665267103392</v>
+        <v>0.505819983927581</v>
       </c>
       <c r="L141" t="n">
-        <v>0.869905741846476</v>
+        <v>0.761703081169139</v>
       </c>
       <c r="M141" t="n">
         <v>4</v>
       </c>
       <c r="N141" t="n">
-        <v>0.915933898152068</v>
+        <v>0.564537090698466</v>
       </c>
     </row>
     <row r="142">
@@ -7155,40 +7143,40 @@
         <v>15</v>
       </c>
       <c r="C142" t="n">
-        <v>0.170795062965719</v>
+        <v>-0.0434715987040814</v>
       </c>
       <c r="D142" t="n">
-        <v>1.12567867040428</v>
+        <v>0.970317233529778</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0617672074263789</v>
+        <v>0.0145887697041529</v>
       </c>
       <c r="F142" t="n">
-        <v>2.76514140888256</v>
+        <v>-2.97979881687396</v>
       </c>
       <c r="G142" t="n">
-        <v>0.00639969696744769</v>
+        <v>0.00353786868445668</v>
       </c>
       <c r="H142" t="n">
-        <v>150.999999997193</v>
+        <v>111.999999997148</v>
       </c>
       <c r="I142" t="n">
-        <v>0.147911900636898</v>
+        <v>0.00618850555074968</v>
       </c>
       <c r="J142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>0.857079779756541</v>
+        <v>0.946812226784606</v>
       </c>
       <c r="L142" t="n">
-        <v>0.858769671507172</v>
+        <v>0.946812226784606</v>
       </c>
       <c r="M142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N142" t="n">
-        <v>1</v>
+        <v>0.64035423188666</v>
       </c>
     </row>
     <row r="143">
@@ -7199,40 +7187,40 @@
         <v>15</v>
       </c>
       <c r="C143" t="n">
-        <v>0.209886410978274</v>
+        <v>0.158033060128523</v>
       </c>
       <c r="D143" t="n">
-        <v>1.15659711690682</v>
+        <v>1.11576489038127</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0789469481844019</v>
+        <v>0.0535742128851613</v>
       </c>
       <c r="F143" t="n">
-        <v>2.65857535731499</v>
+        <v>2.94979714339946</v>
       </c>
       <c r="G143" t="n">
-        <v>0.00869869704263216</v>
+        <v>0.0036867527083959</v>
       </c>
       <c r="H143" t="n">
-        <v>150.006891852232</v>
+        <v>151.000000030801</v>
       </c>
       <c r="I143" t="n">
-        <v>0.239644295963813</v>
+        <v>0.111275302175181</v>
       </c>
       <c r="J143" t="b">
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0.672072457332761</v>
+        <v>0.5857130625792</v>
       </c>
       <c r="L143" t="n">
-        <v>0.724764540146854</v>
+        <v>0.601620528589003</v>
       </c>
       <c r="M143" t="n">
         <v>4</v>
       </c>
       <c r="N143" t="n">
-        <v>1</v>
+        <v>0.667302240219658</v>
       </c>
     </row>
     <row r="144">
@@ -7243,40 +7231,40 @@
         <v>15</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.14436424890139</v>
+        <v>-0.0793281115524835</v>
       </c>
       <c r="D144" t="n">
-        <v>0.904777997414033</v>
+        <v>0.946498345018759</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0547821921028647</v>
+        <v>0.0275993727766876</v>
       </c>
       <c r="F144" t="n">
-        <v>-2.63524045606494</v>
+        <v>-2.87427225953083</v>
       </c>
       <c r="G144" t="n">
-        <v>0.00962125141075244</v>
+        <v>0.00417125100729702</v>
       </c>
       <c r="H144" t="n">
-        <v>110.000000129684</v>
+        <v>706.688989170239</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0872624215433058</v>
+        <v>0.129873087041263</v>
       </c>
       <c r="J144" t="b">
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>0.811367687374118</v>
+        <v>0.809170899772298</v>
       </c>
       <c r="L144" t="n">
-        <v>0.817269143583168</v>
+        <v>0.889585792367212</v>
       </c>
       <c r="M144" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N144" t="n">
-        <v>1</v>
+        <v>0.75499643232076</v>
       </c>
     </row>
     <row r="145">
@@ -7287,40 +7275,40 @@
         <v>15</v>
       </c>
       <c r="C145" t="n">
-        <v>0.108989815657681</v>
+        <v>-0.116929431073395</v>
       </c>
       <c r="D145" t="n">
-        <v>1.07847281846032</v>
+        <v>0.922148223369374</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0422949880640534</v>
+        <v>0.0407444817509458</v>
       </c>
       <c r="F145" t="n">
-        <v>2.57689671155887</v>
+        <v>-2.86982251457108</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0112932061229027</v>
+        <v>0.00448462872680146</v>
       </c>
       <c r="H145" t="n">
-        <v>110.000000146434</v>
+        <v>233.000006511439</v>
       </c>
       <c r="I145" t="n">
-        <v>0.052014719522917</v>
+        <v>0.0965419439710604</v>
       </c>
       <c r="J145" t="b">
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.838490269934457</v>
+        <v>0.677111569973694</v>
       </c>
       <c r="L145" t="n">
-        <v>0.845033949290953</v>
+        <v>0.682512850169688</v>
       </c>
       <c r="M145" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N145" t="n">
-        <v>1</v>
+        <v>0.811717799551065</v>
       </c>
     </row>
     <row r="146">
@@ -7331,40 +7319,40 @@
         <v>15</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0485371815534526</v>
+        <v>-0.137650204823146</v>
       </c>
       <c r="D146" t="n">
-        <v>1.03421575053722</v>
+        <v>0.90899848508731</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0193342924282502</v>
+        <v>0.0475886615012453</v>
       </c>
       <c r="F146" t="n">
-        <v>2.51041933567389</v>
+        <v>-2.89250003006586</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0125596000171129</v>
+        <v>0.00460775117402932</v>
       </c>
       <c r="H146" t="n">
-        <v>315.000000016138</v>
+        <v>110.000000112213</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0289850294315925</v>
+        <v>0.0658499466088831</v>
       </c>
       <c r="J146" t="b">
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.943733336929118</v>
+        <v>0.849032467369694</v>
       </c>
       <c r="L146" t="n">
-        <v>0.946254673913407</v>
+        <v>0.857416517353105</v>
       </c>
       <c r="M146" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N146" t="n">
-        <v>1</v>
+        <v>0.834002962499308</v>
       </c>
     </row>
     <row r="147">
@@ -7375,40 +7363,40 @@
         <v>15</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0578111428510599</v>
+        <v>0.129359562828738</v>
       </c>
       <c r="D147" t="n">
-        <v>1.04088533083797</v>
+        <v>1.09380803324964</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0229019997776546</v>
+        <v>0.0447725126785432</v>
       </c>
       <c r="F147" t="n">
-        <v>2.52428361768941</v>
+        <v>2.88926296715826</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0129944600399613</v>
+        <v>0.00465201973757601</v>
       </c>
       <c r="H147" t="n">
-        <v>111.999999999914</v>
+        <v>110.00000000399</v>
       </c>
       <c r="I147" t="n">
-        <v>0.0152508924971024</v>
+        <v>0.058286957154309</v>
       </c>
       <c r="J147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0.772807567042299</v>
+        <v>0.892358407434617</v>
       </c>
       <c r="L147" t="n">
-        <v>0.772807567042299</v>
+        <v>0.902050033647066</v>
       </c>
       <c r="M147" t="n">
         <v>3</v>
       </c>
       <c r="N147" t="n">
-        <v>1</v>
+        <v>0.842015572501257</v>
       </c>
     </row>
     <row r="148">
@@ -7419,40 +7407,40 @@
         <v>15</v>
       </c>
       <c r="C148" t="n">
-        <v>0.164758074298797</v>
+        <v>0.164297102173253</v>
       </c>
       <c r="D148" t="n">
-        <v>1.12097808531963</v>
+        <v>1.12061996590416</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0670233264107437</v>
+        <v>0.0574086212219809</v>
       </c>
       <c r="F148" t="n">
-        <v>2.45821989331145</v>
+        <v>2.86188901032771</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0150933327285116</v>
+        <v>0.00495099404406523</v>
       </c>
       <c r="H148" t="n">
-        <v>151.000000040724</v>
+        <v>123.000204561548</v>
       </c>
       <c r="I148" t="n">
-        <v>0.174156280516399</v>
+        <v>0.106478070158133</v>
       </c>
       <c r="J148" t="b">
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.694815266225842</v>
+        <v>0.696665267103392</v>
       </c>
       <c r="L148" t="n">
-        <v>0.726896099291567</v>
+        <v>0.869905741846476</v>
       </c>
       <c r="M148" t="n">
         <v>4</v>
       </c>
       <c r="N148" t="n">
-        <v>1</v>
+        <v>0.896129921975807</v>
       </c>
     </row>
     <row r="149">
@@ -7463,40 +7451,40 @@
         <v>15</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.122787563367114</v>
+        <v>0.164297102173253</v>
       </c>
       <c r="D149" t="n">
-        <v>0.918411388286717</v>
+        <v>1.12061996590416</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0499960849122106</v>
+        <v>0.0574086212219809</v>
       </c>
       <c r="F149" t="n">
-        <v>-2.45594357203609</v>
+        <v>2.86188901032771</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0156161699418481</v>
+        <v>0.00495099404406523</v>
       </c>
       <c r="H149" t="n">
-        <v>109.99999999696</v>
+        <v>123.000204561548</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0726809242673471</v>
+        <v>0.106478070158133</v>
       </c>
       <c r="J149" t="b">
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.921314130736246</v>
+        <v>0.696665267103392</v>
       </c>
       <c r="L149" t="n">
-        <v>0.948724026402468</v>
+        <v>0.869905741846476</v>
       </c>
       <c r="M149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N149" t="n">
-        <v>1</v>
+        <v>0.896129921975807</v>
       </c>
     </row>
     <row r="150">
@@ -7507,37 +7495,37 @@
         <v>15</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.0489108528050572</v>
+        <v>0.170795062965719</v>
       </c>
       <c r="D150" t="n">
-        <v>0.966665827556935</v>
+        <v>1.12567867040428</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0203707501309871</v>
+        <v>0.0617672074263789</v>
       </c>
       <c r="F150" t="n">
-        <v>-2.4010334666398</v>
+        <v>2.76514140888256</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0180262139598417</v>
+        <v>0.00639969696744769</v>
       </c>
       <c r="H150" t="n">
-        <v>109.999999988878</v>
+        <v>150.999999997193</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0120659769399896</v>
+        <v>0.147911900636898</v>
       </c>
       <c r="J150" t="b">
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.88607904071764</v>
+        <v>0.857079779756541</v>
       </c>
       <c r="L150" t="n">
-        <v>0.886562638605572</v>
+        <v>0.858769671507172</v>
       </c>
       <c r="M150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N150" t="n">
         <v>1</v>
@@ -7551,37 +7539,37 @@
         <v>15</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.123559148201505</v>
+        <v>-0.14436424890139</v>
       </c>
       <c r="D151" t="n">
-        <v>0.917920333131876</v>
+        <v>0.904777997414033</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0520711117860259</v>
+        <v>0.0547821921028647</v>
       </c>
       <c r="F151" t="n">
-        <v>-2.37289245348251</v>
+        <v>-2.63524045606494</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0188836941149634</v>
+        <v>0.00962125141075244</v>
       </c>
       <c r="H151" t="n">
-        <v>153.999999992764</v>
+        <v>110.000000129684</v>
       </c>
       <c r="I151" t="n">
-        <v>0.105118918772841</v>
+        <v>0.0872624215433058</v>
       </c>
       <c r="J151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.484039545490552</v>
+        <v>0.811367687374118</v>
       </c>
       <c r="L151" t="n">
-        <v>0.484039545490552</v>
+        <v>0.817269143583168</v>
       </c>
       <c r="M151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N151" t="n">
         <v>1</v>
@@ -7595,34 +7583,34 @@
         <v>15</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.0610374512115897</v>
+        <v>-0.102940420839814</v>
       </c>
       <c r="D152" t="n">
-        <v>0.95857455433977</v>
+        <v>0.931133272165142</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0270546582014732</v>
+        <v>0.0395317963122207</v>
       </c>
       <c r="F152" t="n">
-        <v>-2.25607918448092</v>
+        <v>-2.60399046951458</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0260429425251365</v>
+        <v>0.0104867036007771</v>
       </c>
       <c r="H152" t="n">
-        <v>109.999991603356</v>
+        <v>110.000000173929</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0212829855762037</v>
+        <v>0.0454403372027388</v>
       </c>
       <c r="J152" t="b">
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.87965364286194</v>
+        <v>0.892480762993589</v>
       </c>
       <c r="L152" t="n">
-        <v>0.87985498534724</v>
+        <v>0.898159633278254</v>
       </c>
       <c r="M152" t="n">
         <v>3</v>
@@ -7639,37 +7627,37 @@
         <v>15</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0530800404047168</v>
+        <v>-0.133884590236298</v>
       </c>
       <c r="D153" t="n">
-        <v>1.03747749399297</v>
+        <v>0.911374183966882</v>
       </c>
       <c r="E153" t="n">
-        <v>0.02467248868784</v>
+        <v>0.0519193631470538</v>
       </c>
       <c r="F153" t="n">
-        <v>2.15138574289336</v>
+        <v>-2.57870247477979</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0326693416628076</v>
+        <v>0.0112377655636047</v>
       </c>
       <c r="H153" t="n">
-        <v>195.999999990611</v>
+        <v>109.999999988911</v>
       </c>
       <c r="I153" t="n">
-        <v>0.029500074597885</v>
+        <v>0.0783803432236274</v>
       </c>
       <c r="J153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0.567172488106886</v>
+        <v>0.811630313820415</v>
       </c>
       <c r="L153" t="n">
-        <v>0.567172488106886</v>
+        <v>0.812730624080664</v>
       </c>
       <c r="M153" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N153" t="n">
         <v>1</v>
@@ -7683,34 +7671,34 @@
         <v>15</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.0672194977529904</v>
+        <v>0.108989815657681</v>
       </c>
       <c r="D154" t="n">
-        <v>0.954475785090962</v>
+        <v>1.07847281846032</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0328264698926021</v>
+        <v>0.0422949880640534</v>
       </c>
       <c r="F154" t="n">
-        <v>-2.04772240124849</v>
+        <v>2.57689671155887</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0429263875958141</v>
+        <v>0.0112932061229027</v>
       </c>
       <c r="H154" t="n">
-        <v>111.999999998232</v>
+        <v>110.000000146434</v>
       </c>
       <c r="I154" t="n">
-        <v>0.0313326271908114</v>
+        <v>0.052014719522917</v>
       </c>
       <c r="J154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>0.839229997925547</v>
+        <v>0.838490269934457</v>
       </c>
       <c r="L154" t="n">
-        <v>0.839229997925547</v>
+        <v>0.845033949290953</v>
       </c>
       <c r="M154" t="n">
         <v>3</v>
@@ -7727,34 +7715,34 @@
         <v>15</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1266174758776</v>
+        <v>0.0578111428510599</v>
       </c>
       <c r="D155" t="n">
-        <v>1.09173103977584</v>
+        <v>1.04088533083797</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0625723628889082</v>
+        <v>0.0229019997776546</v>
       </c>
       <c r="F155" t="n">
-        <v>2.02353675060023</v>
+        <v>2.52428361768941</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0454421967327487</v>
+        <v>0.0129944600399613</v>
       </c>
       <c r="H155" t="n">
-        <v>110.000000111936</v>
+        <v>111.999999999914</v>
       </c>
       <c r="I155" t="n">
-        <v>0.113844894296574</v>
+        <v>0.0152508924971024</v>
       </c>
       <c r="J155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>0.801483766140281</v>
+        <v>0.772807567042299</v>
       </c>
       <c r="L155" t="n">
-        <v>0.814240989388328</v>
+        <v>0.772807567042299</v>
       </c>
       <c r="M155" t="n">
         <v>3</v>
@@ -7771,37 +7759,37 @@
         <v>15</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1266174758776</v>
+        <v>-0.123217686429513</v>
       </c>
       <c r="D156" t="n">
-        <v>1.09173103977584</v>
+        <v>0.918137615225398</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0625723628889082</v>
+        <v>0.0490591386576236</v>
       </c>
       <c r="F156" t="n">
-        <v>2.02353675060023</v>
+        <v>-2.51161536466082</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0454421967327487</v>
+        <v>0.0130489444324713</v>
       </c>
       <c r="H156" t="n">
-        <v>110.000000111936</v>
+        <v>153.999999999078</v>
       </c>
       <c r="I156" t="n">
-        <v>0.113844894296574</v>
+        <v>0.0933097491736371</v>
       </c>
       <c r="J156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>0.801483766140281</v>
+        <v>0.533226213257386</v>
       </c>
       <c r="L156" t="n">
-        <v>0.814240989388328</v>
+        <v>0.533226213257386</v>
       </c>
       <c r="M156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N156" t="n">
         <v>1</v>
@@ -7815,37 +7803,37 @@
         <v>15</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.0715919755834859</v>
+        <v>0.0542110134867391</v>
       </c>
       <c r="D157" t="n">
-        <v>0.951587367143675</v>
+        <v>1.03829112343095</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0361154685358056</v>
+        <v>0.0220950374812367</v>
       </c>
       <c r="F157" t="n">
-        <v>-1.98230781673255</v>
+        <v>2.45353797352802</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0498937105613426</v>
+        <v>0.0148639146723482</v>
       </c>
       <c r="H157" t="n">
-        <v>111.99999999812</v>
+        <v>237.999999992812</v>
       </c>
       <c r="I157" t="n">
-        <v>0.0379258178106131</v>
+        <v>0.0283901657739018</v>
       </c>
       <c r="J157" t="b">
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>0.870897022445222</v>
+        <v>0.608374262580477</v>
       </c>
       <c r="L157" t="n">
-        <v>0.870897022445222</v>
+        <v>0.608374262580477</v>
       </c>
       <c r="M157" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N157" t="n">
         <v>1</v>
@@ -7859,37 +7847,37 @@
         <v>15</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.0786782963709234</v>
+        <v>-0.122787563367114</v>
       </c>
       <c r="D158" t="n">
-        <v>0.946924760520103</v>
+        <v>0.918411388286717</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0398899887287728</v>
+        <v>0.0499960849122106</v>
       </c>
       <c r="F158" t="n">
-        <v>-1.97238201559512</v>
+        <v>-2.45594357203609</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0503924888933017</v>
+        <v>0.0156161699418481</v>
       </c>
       <c r="H158" t="n">
-        <v>151.000000006242</v>
+        <v>109.99999999696</v>
       </c>
       <c r="I158" t="n">
-        <v>0.0616900342456874</v>
+        <v>0.0726809242673471</v>
       </c>
       <c r="J158" t="b">
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0.784392019979239</v>
+        <v>0.921314130736246</v>
       </c>
       <c r="L158" t="n">
-        <v>0.79353633247192</v>
+        <v>0.948724026402468</v>
       </c>
       <c r="M158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N158" t="n">
         <v>1</v>
@@ -7903,37 +7891,37 @@
         <v>15</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.086048861882438</v>
+        <v>-0.10836042884715</v>
       </c>
       <c r="D159" t="n">
-        <v>0.942099365894665</v>
+        <v>0.927641694572983</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0443646352577694</v>
+        <v>0.0448049044559446</v>
       </c>
       <c r="F159" t="n">
-        <v>-1.93958231331043</v>
+        <v>-2.41849480906042</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0549912379856722</v>
+        <v>0.0167749817478772</v>
       </c>
       <c r="H159" t="n">
-        <v>110.000000008597</v>
+        <v>151.000000001341</v>
       </c>
       <c r="I159" t="n">
-        <v>0.0572298065898275</v>
+        <v>0.0778284345774143</v>
       </c>
       <c r="J159" t="b">
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.944693895597537</v>
+        <v>0.647223863795321</v>
       </c>
       <c r="L159" t="n">
-        <v>0.958605549672293</v>
+        <v>0.652713173833445</v>
       </c>
       <c r="M159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N159" t="n">
         <v>1</v>
@@ -7947,34 +7935,34 @@
         <v>15</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.0434273567838435</v>
+        <v>-0.0976030298921899</v>
       </c>
       <c r="D160" t="n">
-        <v>0.970346989891774</v>
+        <v>0.934584470564884</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0227323453826857</v>
+        <v>0.0472640857650865</v>
       </c>
       <c r="F160" t="n">
-        <v>-1.91037730831418</v>
+        <v>-2.06505697322275</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0586883536482271</v>
+        <v>0.0412261689412013</v>
       </c>
       <c r="H160" t="n">
-        <v>109.999999917808</v>
+        <v>112.000000000111</v>
       </c>
       <c r="I160" t="n">
-        <v>0.0150257770041489</v>
+        <v>0.0649547582779364</v>
       </c>
       <c r="J160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>0.877069826411528</v>
+        <v>0.504744834913644</v>
       </c>
       <c r="L160" t="n">
-        <v>0.878061807843012</v>
+        <v>0.504744834913644</v>
       </c>
       <c r="M160" t="n">
         <v>3</v>
@@ -7991,34 +7979,34 @@
         <v>15</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0881152846329188</v>
+        <v>-0.0976030298921899</v>
       </c>
       <c r="D161" t="n">
-        <v>1.06298061291463</v>
+        <v>0.934584470564884</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0493690285058058</v>
+        <v>0.0472640857650865</v>
       </c>
       <c r="F161" t="n">
-        <v>1.78482921985302</v>
+        <v>-2.06505697322275</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0770454323466399</v>
+        <v>0.0412261689412013</v>
       </c>
       <c r="H161" t="n">
-        <v>110.000000036813</v>
+        <v>112.000000000111</v>
       </c>
       <c r="I161" t="n">
-        <v>0.0708692129830362</v>
+        <v>0.0649547582779364</v>
       </c>
       <c r="J161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>0.924132312808402</v>
+        <v>0.504744834913644</v>
       </c>
       <c r="L161" t="n">
-        <v>0.926600842335285</v>
+        <v>0.504744834913644</v>
       </c>
       <c r="M161" t="n">
         <v>3</v>
@@ -8035,37 +8023,37 @@
         <v>15</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0363242070364491</v>
+        <v>-0.0568816963399122</v>
       </c>
       <c r="D162" t="n">
-        <v>1.02549766510641</v>
+        <v>0.961339756793715</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0224424612972895</v>
+        <v>0.0279823049138644</v>
       </c>
       <c r="F162" t="n">
-        <v>1.61854827575602</v>
+        <v>-2.03277380169383</v>
       </c>
       <c r="G162" t="n">
-        <v>0.108357246789621</v>
+        <v>0.0437932538747786</v>
       </c>
       <c r="H162" t="n">
-        <v>111.999999998919</v>
+        <v>154.000000000659</v>
       </c>
       <c r="I162" t="n">
-        <v>0.014645001393259</v>
+        <v>0.0303566716691853</v>
       </c>
       <c r="J162" t="b">
         <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>0.699366632695418</v>
+        <v>0.873006267444886</v>
       </c>
       <c r="L162" t="n">
-        <v>0.699366632695418</v>
+        <v>0.873006267444886</v>
       </c>
       <c r="M162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N162" t="n">
         <v>1</v>
@@ -8079,37 +8067,37 @@
         <v>15</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0363242070364491</v>
+        <v>0.0953218510561527</v>
       </c>
       <c r="D163" t="n">
-        <v>1.02549766510641</v>
+        <v>1.06830370950259</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0224424612972895</v>
+        <v>0.0470901643707165</v>
       </c>
       <c r="F163" t="n">
-        <v>1.61854827575602</v>
+        <v>2.02424120471811</v>
       </c>
       <c r="G163" t="n">
-        <v>0.108357246789621</v>
+        <v>0.0448896130425029</v>
       </c>
       <c r="H163" t="n">
-        <v>111.999999998919</v>
+        <v>136.969334009225</v>
       </c>
       <c r="I163" t="n">
-        <v>0.014645001393259</v>
+        <v>0.0788059549363866</v>
       </c>
       <c r="J163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>0.699366632695418</v>
+        <v>0.227530845241444</v>
       </c>
       <c r="L163" t="n">
-        <v>0.699366632695418</v>
+        <v>0.636892215790439</v>
       </c>
       <c r="M163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N163" t="n">
         <v>1</v>
@@ -8123,34 +8111,34 @@
         <v>15</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0363242070364491</v>
+        <v>0.1266174758776</v>
       </c>
       <c r="D164" t="n">
-        <v>1.02549766510641</v>
+        <v>1.09173103977584</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0224424612972895</v>
+        <v>0.0625723628889082</v>
       </c>
       <c r="F164" t="n">
-        <v>1.61854827575602</v>
+        <v>2.02353675060023</v>
       </c>
       <c r="G164" t="n">
-        <v>0.108357246789621</v>
+        <v>0.0454421967327487</v>
       </c>
       <c r="H164" t="n">
-        <v>111.999999998919</v>
+        <v>110.000000111936</v>
       </c>
       <c r="I164" t="n">
-        <v>0.014645001393259</v>
+        <v>0.113844894296574</v>
       </c>
       <c r="J164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>0.699366632695418</v>
+        <v>0.801483766140281</v>
       </c>
       <c r="L164" t="n">
-        <v>0.699366632695418</v>
+        <v>0.814240989388328</v>
       </c>
       <c r="M164" t="n">
         <v>3</v>
@@ -8167,34 +8155,34 @@
         <v>15</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0363242070364491</v>
+        <v>0.1266174758776</v>
       </c>
       <c r="D165" t="n">
-        <v>1.02549766510641</v>
+        <v>1.09173103977584</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0224424612972895</v>
+        <v>0.0625723628889082</v>
       </c>
       <c r="F165" t="n">
-        <v>1.61854827575602</v>
+        <v>2.02353675060023</v>
       </c>
       <c r="G165" t="n">
-        <v>0.108357246789621</v>
+        <v>0.0454421967327487</v>
       </c>
       <c r="H165" t="n">
-        <v>111.999999998919</v>
+        <v>110.000000111936</v>
       </c>
       <c r="I165" t="n">
-        <v>0.014645001393259</v>
+        <v>0.113844894296574</v>
       </c>
       <c r="J165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.699366632695418</v>
+        <v>0.801483766140281</v>
       </c>
       <c r="L165" t="n">
-        <v>0.699366632695418</v>
+        <v>0.814240989388328</v>
       </c>
       <c r="M165" t="n">
         <v>3</v>
@@ -8211,34 +8199,34 @@
         <v>15</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0363242070364491</v>
+        <v>-0.086048861882438</v>
       </c>
       <c r="D166" t="n">
-        <v>1.02549766510641</v>
+        <v>0.942099365894665</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0224424612972895</v>
+        <v>0.0443646352577694</v>
       </c>
       <c r="F166" t="n">
-        <v>1.61854827575602</v>
+        <v>-1.93958231331043</v>
       </c>
       <c r="G166" t="n">
-        <v>0.108357246789621</v>
+        <v>0.0549912379856722</v>
       </c>
       <c r="H166" t="n">
-        <v>111.999999998919</v>
+        <v>110.000000008597</v>
       </c>
       <c r="I166" t="n">
-        <v>0.014645001393259</v>
+        <v>0.0572298065898275</v>
       </c>
       <c r="J166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>0.699366632695418</v>
+        <v>0.944693895597537</v>
       </c>
       <c r="L166" t="n">
-        <v>0.699366632695418</v>
+        <v>0.958605549672293</v>
       </c>
       <c r="M166" t="n">
         <v>3</v>
@@ -8255,37 +8243,37 @@
         <v>15</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0537417839048995</v>
+        <v>-0.0434273567838435</v>
       </c>
       <c r="D167" t="n">
-        <v>1.03795347917819</v>
+        <v>0.970346989891774</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0337114184968599</v>
+        <v>0.0227323453826857</v>
       </c>
       <c r="F167" t="n">
-        <v>1.59417153893733</v>
+        <v>-1.91037730831418</v>
       </c>
       <c r="G167" t="n">
-        <v>0.112542437678685</v>
+        <v>0.0586883536482271</v>
       </c>
       <c r="H167" t="n">
-        <v>192.000009447961</v>
+        <v>109.999999917808</v>
       </c>
       <c r="I167" t="n">
-        <v>0.0550745872580284</v>
+        <v>0.0150257770041489</v>
       </c>
       <c r="J167" t="b">
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.90304710719958</v>
+        <v>0.877069826411528</v>
       </c>
       <c r="L167" t="n">
-        <v>0.907451620665303</v>
+        <v>0.878061807843012</v>
       </c>
       <c r="M167" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N167" t="n">
         <v>1</v>
@@ -8299,37 +8287,37 @@
         <v>15</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.0425961938008209</v>
+        <v>-0.0639464849564046</v>
       </c>
       <c r="D168" t="n">
-        <v>0.970906185594879</v>
+        <v>0.956643642983217</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0274992953333883</v>
+        <v>0.039959186943059</v>
       </c>
       <c r="F168" t="n">
-        <v>-1.54899219359642</v>
+        <v>-1.60029494713011</v>
       </c>
       <c r="G168" t="n">
-        <v>0.124204739992268</v>
+        <v>0.111623324280077</v>
       </c>
       <c r="H168" t="n">
-        <v>112.000000002186</v>
+        <v>150.999999998559</v>
       </c>
       <c r="I168" t="n">
-        <v>0.0219882961668338</v>
+        <v>0.0619042505430591</v>
       </c>
       <c r="J168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0.794051772586673</v>
+        <v>0.85290408248964</v>
       </c>
       <c r="L168" t="n">
-        <v>0.794051772586673</v>
+        <v>0.861164919672314</v>
       </c>
       <c r="M168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N168" t="n">
         <v>1</v>
@@ -8343,37 +8331,37 @@
         <v>15</v>
       </c>
       <c r="C169" t="n">
-        <v>0.12613231272122</v>
+        <v>0.0537417839048995</v>
       </c>
       <c r="D169" t="n">
-        <v>1.09136396384412</v>
+        <v>1.03795347917819</v>
       </c>
       <c r="E169" t="n">
-        <v>0.084386561528523</v>
+        <v>0.0337114184968599</v>
       </c>
       <c r="F169" t="n">
-        <v>1.49469667250971</v>
+        <v>1.59417153893733</v>
       </c>
       <c r="G169" t="n">
-        <v>0.136346701605367</v>
+        <v>0.112542437678685</v>
       </c>
       <c r="H169" t="n">
-        <v>233.00000069964</v>
+        <v>192.000009447961</v>
       </c>
       <c r="I169" t="n">
-        <v>0.414118875042695</v>
+        <v>0.0550745872580284</v>
       </c>
       <c r="J169" t="b">
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.297315028876473</v>
+        <v>0.90304710719958</v>
       </c>
       <c r="L169" t="n">
-        <v>0.317417470388141</v>
+        <v>0.907451620665303</v>
       </c>
       <c r="M169" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N169" t="n">
         <v>1</v>
@@ -8387,34 +8375,34 @@
         <v>15</v>
       </c>
       <c r="C170" t="n">
-        <v>0.13036978151057</v>
+        <v>-0.0394811061005238</v>
       </c>
       <c r="D170" t="n">
-        <v>1.09457421892337</v>
+        <v>0.973004844984965</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0920065565373176</v>
+        <v>0.0289951957976793</v>
       </c>
       <c r="F170" t="n">
-        <v>1.41696186029625</v>
+        <v>-1.36164302445179</v>
       </c>
       <c r="G170" t="n">
-        <v>0.158553971173771</v>
+        <v>0.175338720181291</v>
       </c>
       <c r="H170" t="n">
-        <v>151.000000030553</v>
+        <v>150.999999849909</v>
       </c>
       <c r="I170" t="n">
-        <v>0.328189542208518</v>
+        <v>0.0325941211684818</v>
       </c>
       <c r="J170" t="b">
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.285878468137871</v>
+        <v>0.76731685204117</v>
       </c>
       <c r="L170" t="n">
-        <v>0.315290080088531</v>
+        <v>0.76889864676233</v>
       </c>
       <c r="M170" t="n">
         <v>4</v>
@@ -8431,37 +8419,37 @@
         <v>15</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.0394811061005238</v>
+        <v>0.0179307773403583</v>
       </c>
       <c r="D171" t="n">
-        <v>0.973004844984965</v>
+        <v>1.0125062246263</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0289951957976793</v>
+        <v>0.0146670725537033</v>
       </c>
       <c r="F171" t="n">
-        <v>-1.36164302445179</v>
+        <v>1.22251916834154</v>
       </c>
       <c r="G171" t="n">
-        <v>0.175338720181291</v>
+        <v>0.222302344400831</v>
       </c>
       <c r="H171" t="n">
-        <v>150.999999849909</v>
+        <v>364.000000000333</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0325941211684818</v>
+        <v>0.0187653462779389</v>
       </c>
       <c r="J171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>0.76731685204117</v>
+        <v>0.684815301764793</v>
       </c>
       <c r="L171" t="n">
-        <v>0.76889864676233</v>
+        <v>0.684815301764793</v>
       </c>
       <c r="M171" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N171" t="n">
         <v>1</v>
@@ -8475,37 +8463,37 @@
         <v>15</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0428312162285933</v>
+        <v>0.0179307773403583</v>
       </c>
       <c r="D172" t="n">
-        <v>1.03013342920473</v>
+        <v>1.0125062246263</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0338996853502194</v>
+        <v>0.0146670725537033</v>
       </c>
       <c r="F172" t="n">
-        <v>1.26346943300806</v>
+        <v>1.22251916834154</v>
       </c>
       <c r="G172" t="n">
-        <v>0.208329898142484</v>
+        <v>0.222302344400831</v>
       </c>
       <c r="H172" t="n">
-        <v>153.999999995496</v>
+        <v>364.000000000333</v>
       </c>
       <c r="I172" t="n">
-        <v>0.0445531606222551</v>
+        <v>0.0187653462779389</v>
       </c>
       <c r="J172" t="b">
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>0.50890306450266</v>
+        <v>0.684815301764793</v>
       </c>
       <c r="L172" t="n">
-        <v>0.50890306450266</v>
+        <v>0.684815301764793</v>
       </c>
       <c r="M172" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N172" t="n">
         <v>1</v>
@@ -8563,37 +8551,37 @@
         <v>15</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0177357277470196</v>
+        <v>0.0490160805092969</v>
       </c>
       <c r="D174" t="n">
-        <v>1.01236934498624</v>
+        <v>1.03455911281572</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0149112813864724</v>
+        <v>0.0545201648574195</v>
       </c>
       <c r="F174" t="n">
-        <v>1.18941674342687</v>
+        <v>0.899044979733337</v>
       </c>
       <c r="G174" t="n">
-        <v>0.236791163697582</v>
+        <v>0.369754827188167</v>
       </c>
       <c r="H174" t="n">
-        <v>112.000000000993</v>
+        <v>192.000000001502</v>
       </c>
       <c r="I174" t="n">
-        <v>0.00646514662751682</v>
+        <v>0.144049421302348</v>
       </c>
       <c r="J174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>0.893755380593364</v>
+        <v>0.83800335487198</v>
       </c>
       <c r="L174" t="n">
-        <v>0.893755380593364</v>
+        <v>0.848237472829612</v>
       </c>
       <c r="M174" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N174" t="n">
         <v>1</v>
@@ -8607,37 +8595,37 @@
         <v>15</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0153339965216892</v>
+        <v>-0.0190239562513549</v>
       </c>
       <c r="D175" t="n">
-        <v>1.01068540191569</v>
+        <v>0.986900158067298</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0140057341956526</v>
+        <v>0.0211526516897608</v>
       </c>
       <c r="F175" t="n">
-        <v>1.09483703656528</v>
+        <v>-0.899365078684847</v>
       </c>
       <c r="G175" t="n">
-        <v>0.274237111264013</v>
+        <v>0.369862356089204</v>
       </c>
       <c r="H175" t="n">
-        <v>405.999999980288</v>
+        <v>154.000000002055</v>
       </c>
       <c r="I175" t="n">
-        <v>0.0190124879886679</v>
+        <v>0.0173466981114003</v>
       </c>
       <c r="J175" t="b">
         <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>0.673359782721098</v>
+        <v>0.84631187863998</v>
       </c>
       <c r="L175" t="n">
-        <v>0.673359782721098</v>
+        <v>0.84631187863998</v>
       </c>
       <c r="M175" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N175" t="n">
         <v>1</v>
@@ -8651,34 +8639,34 @@
         <v>15</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.0783287023048801</v>
+        <v>-0.0359576299546892</v>
       </c>
       <c r="D176" t="n">
-        <v>0.947154247265302</v>
+        <v>0.975384106848224</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0742701251853553</v>
+        <v>0.0401460826100486</v>
       </c>
       <c r="F176" t="n">
-        <v>-1.05464615966912</v>
+        <v>-0.895669704662267</v>
       </c>
       <c r="G176" t="n">
-        <v>0.293271753039346</v>
+        <v>0.371827055745264</v>
       </c>
       <c r="H176" t="n">
-        <v>151.00000001993</v>
+        <v>153.999999998608</v>
       </c>
       <c r="I176" t="n">
-        <v>0.21385307334649</v>
+        <v>0.0624846774047812</v>
       </c>
       <c r="J176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>0.193785501314628</v>
+        <v>0.274956716324038</v>
       </c>
       <c r="L176" t="n">
-        <v>0.213453935020304</v>
+        <v>0.274956716324038</v>
       </c>
       <c r="M176" t="n">
         <v>4</v>
@@ -8695,37 +8683,37 @@
         <v>15</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0531125596761383</v>
+        <v>-0.0372591107132841</v>
       </c>
       <c r="D177" t="n">
-        <v>1.03750087966459</v>
+        <v>0.974504592335676</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0532528425989891</v>
+        <v>0.0443283734685933</v>
       </c>
       <c r="F177" t="n">
-        <v>0.99736571953713</v>
+        <v>-0.840525103852102</v>
       </c>
       <c r="G177" t="n">
-        <v>0.319621675999685</v>
+        <v>0.402404850098226</v>
       </c>
       <c r="H177" t="n">
-        <v>233.000000041726</v>
+        <v>111.999999998391</v>
       </c>
       <c r="I177" t="n">
-        <v>0.164916471163367</v>
+        <v>0.0571362903440207</v>
       </c>
       <c r="J177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>0.784102020304319</v>
+        <v>0.653613891371598</v>
       </c>
       <c r="L177" t="n">
-        <v>0.802341051532035</v>
+        <v>0.653613891371598</v>
       </c>
       <c r="M177" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N177" t="n">
         <v>1</v>
@@ -8739,34 +8727,34 @@
         <v>15</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0585509084969436</v>
+        <v>-0.0210413697440673</v>
       </c>
       <c r="D178" t="n">
-        <v>1.04141919879963</v>
+        <v>0.985521076400511</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0628886588743156</v>
+        <v>0.0302135941072174</v>
       </c>
       <c r="F178" t="n">
-        <v>0.931024918403157</v>
+        <v>-0.696420613495995</v>
       </c>
       <c r="G178" t="n">
-        <v>0.352867401272173</v>
+        <v>0.48684503569644</v>
       </c>
       <c r="H178" t="n">
-        <v>218.669792068302</v>
+        <v>237.999999998451</v>
       </c>
       <c r="I178" t="n">
-        <v>0.217219858332089</v>
+        <v>0.0530863937900013</v>
       </c>
       <c r="J178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>0.11435706174552</v>
+        <v>0.179698584056433</v>
       </c>
       <c r="L178" t="n">
-        <v>0.260527762924126</v>
+        <v>0.179698584056433</v>
       </c>
       <c r="M178" t="n">
         <v>6</v>
@@ -8783,37 +8771,37 @@
         <v>15</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0724828677097467</v>
+        <v>0.00825736934896429</v>
       </c>
       <c r="D179" t="n">
-        <v>1.05152479385401</v>
+        <v>1.0057399832177</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0783221654705547</v>
+        <v>0.025905764602119</v>
       </c>
       <c r="F179" t="n">
-        <v>0.925445144095214</v>
+        <v>0.318746405511955</v>
       </c>
       <c r="G179" t="n">
-        <v>0.355671814863775</v>
+        <v>0.75052326411242</v>
       </c>
       <c r="H179" t="n">
-        <v>237.999999996136</v>
+        <v>110.000000121783</v>
       </c>
       <c r="I179" t="n">
-        <v>0.3567367209709</v>
+        <v>0.019513774290501</v>
       </c>
       <c r="J179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>0.102862052670345</v>
+        <v>0.869208979177685</v>
       </c>
       <c r="L179" t="n">
-        <v>0.102862052670345</v>
+        <v>0.872966236910298</v>
       </c>
       <c r="M179" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N179" t="n">
         <v>1</v>
@@ -8827,34 +8815,34 @@
         <v>15</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.0372591107132841</v>
+        <v>-0.00300005453340903</v>
       </c>
       <c r="D180" t="n">
-        <v>0.974504592335676</v>
+        <v>0.997922681277893</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0443283734685933</v>
+        <v>0.0220135120500927</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.840525103852102</v>
+        <v>-0.136282412664652</v>
       </c>
       <c r="G180" t="n">
-        <v>0.402404850098226</v>
+        <v>0.891842687595768</v>
       </c>
       <c r="H180" t="n">
-        <v>111.999999998391</v>
+        <v>111.999999998482</v>
       </c>
       <c r="I180" t="n">
-        <v>0.0571362903440207</v>
+        <v>0.0140905231869753</v>
       </c>
       <c r="J180" t="b">
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>0.653613891371598</v>
+        <v>0.712982685587027</v>
       </c>
       <c r="L180" t="n">
-        <v>0.653613891371598</v>
+        <v>0.712982685587027</v>
       </c>
       <c r="M180" t="n">
         <v>3</v>
@@ -8871,34 +8859,34 @@
         <v>15</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0102353314546173</v>
+        <v>-0.00633996508775023</v>
       </c>
       <c r="D181" t="n">
-        <v>1.0071198173729</v>
+        <v>0.995615112887902</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0149386313283641</v>
+        <v>0.0644009253492311</v>
       </c>
       <c r="F181" t="n">
-        <v>0.685158581776054</v>
+        <v>-0.0984452483154564</v>
       </c>
       <c r="G181" t="n">
-        <v>0.494659455230525</v>
+        <v>0.921784030061927</v>
       </c>
       <c r="H181" t="n">
-        <v>111.999999999901</v>
+        <v>95.9902792364721</v>
       </c>
       <c r="I181" t="n">
-        <v>0.00648888483497595</v>
+        <v>0.10719638511087</v>
       </c>
       <c r="J181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>0.891869011655405</v>
+        <v>0.611022384157406</v>
       </c>
       <c r="L181" t="n">
-        <v>0.891869011655405</v>
+        <v>0.830303674965727</v>
       </c>
       <c r="M181" t="n">
         <v>3</v>
@@ -8915,215 +8903,39 @@
         <v>15</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.0162490200820233</v>
+        <v>0.00120303642397706</v>
       </c>
       <c r="D182" t="n">
-        <v>0.988800227248014</v>
+        <v>1.00083422908107</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0300077646984345</v>
+        <v>0.0172509631303963</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.541493851518736</v>
+        <v>0.0697373482792563</v>
       </c>
       <c r="G182" t="n">
-        <v>0.588965286914598</v>
+        <v>0.944527076149499</v>
       </c>
       <c r="H182" t="n">
-        <v>150.99999997074</v>
+        <v>111.999999996559</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0349103719128533</v>
+        <v>0.00865316811801069</v>
       </c>
       <c r="J182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>0.642248660415551</v>
+        <v>0.749398509334118</v>
       </c>
       <c r="L182" t="n">
-        <v>0.643677398616411</v>
+        <v>0.749398509334118</v>
       </c>
       <c r="M182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>196</v>
-      </c>
-      <c r="B183" t="s">
-        <v>15</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.0282953479812994</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.01980643601613</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.0645346392947166</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.438452097827343</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.661918480426553</v>
-      </c>
-      <c r="H183" t="n">
-        <v>110.000000007886</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.12109723344953</v>
-      </c>
-      <c r="J183" t="b">
-        <v>0</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.83722292806708</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0.861663864080624</v>
-      </c>
-      <c r="M183" t="n">
-        <v>3</v>
-      </c>
-      <c r="N183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>197</v>
-      </c>
-      <c r="B184" t="s">
-        <v>15</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.00825736934896429</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.0057399832177</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.025905764602119</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.318746405511955</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.75052326411242</v>
-      </c>
-      <c r="H184" t="n">
-        <v>110.000000121783</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.019513774290501</v>
-      </c>
-      <c r="J184" t="b">
-        <v>0</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.869208979177685</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0.872966236910298</v>
-      </c>
-      <c r="M184" t="n">
-        <v>3</v>
-      </c>
-      <c r="N184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>198</v>
-      </c>
-      <c r="B185" t="s">
-        <v>15</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.0054294005592612</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.00377046407234</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.0296564507166599</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.1830765458461</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.854978764614516</v>
-      </c>
-      <c r="H185" t="n">
-        <v>154.00000000102</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.0340977349870213</v>
-      </c>
-      <c r="J185" t="b">
-        <v>1</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.374694120367776</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0.374694120367776</v>
-      </c>
-      <c r="M185" t="n">
-        <v>4</v>
-      </c>
-      <c r="N185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>199</v>
-      </c>
-      <c r="B186" t="s">
-        <v>15</v>
-      </c>
-      <c r="C186" t="n">
-        <v>-0.00190704489848697</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.99867901048121</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.0179330008135663</v>
-      </c>
-      <c r="F186" t="n">
-        <v>-0.106342765402893</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.915500643008359</v>
-      </c>
-      <c r="H186" t="n">
-        <v>111.99999999877</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.00935092091321549</v>
-      </c>
-      <c r="J186" t="b">
-        <v>1</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.779522288664425</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0.779522288664425</v>
-      </c>
-      <c r="M186" t="n">
-        <v>3</v>
-      </c>
-      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
